--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1124074.150489161</v>
+        <v>-1124822.552000081</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692321</v>
+        <v>4354305.171692324</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>260.8850331288903</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D11" t="n">
-        <v>56.67769343937894</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7916077889827</v>
       </c>
       <c r="G11" t="n">
-        <v>282.1305160374088</v>
+        <v>282.1305160374086</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094286</v>
+        <v>194.1880049094284</v>
       </c>
       <c r="I11" t="n">
-        <v>18.95690544140085</v>
+        <v>18.95690544140068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049037</v>
+        <v>42.5946441204902</v>
       </c>
       <c r="T11" t="n">
-        <v>90.29547644886772</v>
+        <v>90.29547644886756</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572777</v>
+        <v>83.64685168428096</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690696</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9917680797731</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>28.60717735949964</v>
       </c>
       <c r="C12" t="n">
-        <v>30.86856503750639</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>106.1496145721573</v>
       </c>
       <c r="E12" t="n">
-        <v>16.33965884974901</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>111.8659362708898</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.74941852193291</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.44188278383307</v>
       </c>
       <c r="S12" t="n">
-        <v>145.364587523205</v>
+        <v>16.14651652925634</v>
       </c>
       <c r="T12" t="n">
-        <v>56.29837653087532</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2889227376699</v>
+        <v>87.07085174372129</v>
       </c>
       <c r="V12" t="n">
-        <v>96.8935953322009</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>66.71974724703489</v>
+        <v>66.71974724703472</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.50174400358756</v>
+        <v>52.50174400358739</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898804</v>
+        <v>38.70173884898787</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656643</v>
+        <v>22.32310324656626</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234588</v>
+        <v>21.27085310234571</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053219</v>
+        <v>21.73777743053202</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490183</v>
+        <v>37.74587087490166</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016425</v>
+        <v>26.19044893016408</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455316</v>
+        <v>5.525274884455145</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597221</v>
+        <v>6.820769996597051</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488073</v>
+        <v>77.70832139488056</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976439</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V13" t="n">
-        <v>128.9098804032132</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738262</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962953</v>
+        <v>99.72186846962936</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569721</v>
+        <v>90.59673622569704</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288903</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>239.8776541311001</v>
       </c>
       <c r="E14" t="n">
         <v>261.6197917010056</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889827</v>
+        <v>280.7916077889828</v>
       </c>
       <c r="G14" t="n">
-        <v>282.1305160374086</v>
+        <v>282.1305160374087</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094284</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049019</v>
+        <v>42.59464412049026</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>90.29547644886762</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572775</v>
+        <v>110.983112502239</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470263</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>76.40518703558496</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,16 +1689,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645741468</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>4.128789075675769</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.44188278383307</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.364587523205</v>
+        <v>16.1465165292564</v>
       </c>
       <c r="T15" t="n">
-        <v>95.37152647031185</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U15" t="n">
-        <v>87.07085174372129</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V15" t="n">
-        <v>96.89359533220073</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>109.6846390850745</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>147.3296464353506</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>61.37804209296837</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358739</v>
+        <v>52.50174400358745</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898787</v>
+        <v>38.70173884898793</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656626</v>
+        <v>22.32310324656632</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234571</v>
+        <v>21.27085310234577</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053202</v>
+        <v>21.73777743053208</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490166</v>
+        <v>37.74587087490171</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016408</v>
+        <v>26.19044893016413</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455145</v>
+        <v>5.525274884455202</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597051</v>
+        <v>6.820769996597107</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488056</v>
+        <v>77.70832139488061</v>
       </c>
       <c r="T16" t="n">
         <v>100.4899439296225</v>
@@ -1825,13 +1825,13 @@
         <v>128.909880403213</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738262</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962936</v>
+        <v>99.72186846962941</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569704</v>
+        <v>90.5967362256971</v>
       </c>
     </row>
     <row r="17">
@@ -1926,10 +1926,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.74941852193291</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>39.44188278383307</v>
       </c>
       <c r="S18" t="n">
-        <v>102.0517981327568</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
         <v>185.5164475248238</v>
@@ -1983,10 +1983,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>147.637507370566</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.8828891767613</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.82707656697313</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7080149235711</v>
+        <v>113.6631250365562</v>
       </c>
       <c r="U19" t="n">
-        <v>64.79024734877613</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434545</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>63.78129002495871</v>
@@ -2081,7 +2081,7 @@
         <v>170.5895566800228</v>
       </c>
       <c r="C20" t="n">
-        <v>158.6008736377045</v>
+        <v>158.6008736377041</v>
       </c>
       <c r="D20" t="n">
         <v>149.5821776822325</v>
@@ -2093,7 +2093,7 @@
         <v>190.4961313401152</v>
       </c>
       <c r="G20" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H20" t="n">
         <v>103.8925284605608</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.77538670840997</v>
+        <v>32.77538670840998</v>
       </c>
       <c r="V20" t="n">
         <v>114.0959339202019</v>
@@ -2160,22 +2160,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>21.0165580960836</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>56.74941852193291</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383307</v>
+        <v>15.68660192226432</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>185.5164475248238</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>6.598118883333171</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.8230039344097</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.82707656697313</v>
       </c>
       <c r="R22" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>9.426392020761796</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3012597768294825</v>
+        <v>41.61621313727557</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>190.4961313401152</v>
       </c>
       <c r="G23" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605609</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670840997</v>
+        <v>32.77538670840998</v>
       </c>
       <c r="V23" t="n">
         <v>114.0959339202019</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H24" t="n">
         <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>44.80254511546423</v>
+        <v>56.74941852193291</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.44188278383307</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T24" t="n">
         <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2463,7 +2463,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>63.44929698173542</v>
       </c>
     </row>
     <row r="25">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.36192065093213</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.82707656697313</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>10.19446748075489</v>
+        <v>43.26680486836378</v>
       </c>
       <c r="U25" t="n">
         <v>64.79024734877611</v>
@@ -2542,7 +2542,7 @@
         <v>9.426392020761796</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0.3012597768294825</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.7316531105165</v>
+        <v>288.7316531105167</v>
       </c>
       <c r="C26" t="n">
-        <v>276.7429700681982</v>
+        <v>276.7429700681984</v>
       </c>
       <c r="D26" t="n">
-        <v>267.7242741127262</v>
+        <v>267.7242741127264</v>
       </c>
       <c r="E26" t="n">
-        <v>289.4664116826318</v>
+        <v>289.4664116826319</v>
       </c>
       <c r="F26" t="n">
-        <v>308.638227770609</v>
+        <v>308.6382277706091</v>
       </c>
       <c r="G26" t="n">
-        <v>309.9771360190348</v>
+        <v>309.977136019035</v>
       </c>
       <c r="H26" t="n">
-        <v>222.0346248910546</v>
+        <v>222.0346248910548</v>
       </c>
       <c r="I26" t="n">
-        <v>46.80352542302688</v>
+        <v>46.80352542302704</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.44126410211642</v>
+        <v>70.44126410211658</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1420964304938</v>
+        <v>118.1420964304939</v>
       </c>
       <c r="U26" t="n">
-        <v>150.9174831389037</v>
+        <v>150.9174831389039</v>
       </c>
       <c r="V26" t="n">
-        <v>232.2380303506957</v>
+        <v>232.2380303506958</v>
       </c>
       <c r="W26" t="n">
-        <v>257.5381298286526</v>
+        <v>257.5381298286527</v>
       </c>
       <c r="X26" t="n">
-        <v>276.8383880613992</v>
+        <v>276.8383880613993</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.234985857598</v>
+        <v>288.2349858575981</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.34836398521361</v>
+        <v>80.34836398521377</v>
       </c>
       <c r="C28" t="n">
-        <v>66.54835883061409</v>
+        <v>66.54835883061425</v>
       </c>
       <c r="D28" t="n">
-        <v>50.16972322819248</v>
+        <v>50.16972322819264</v>
       </c>
       <c r="E28" t="n">
-        <v>49.11747308397193</v>
+        <v>49.11747308397209</v>
       </c>
       <c r="F28" t="n">
-        <v>49.58439741215824</v>
+        <v>49.5843974121584</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652787</v>
+        <v>65.59249085652803</v>
       </c>
       <c r="H28" t="n">
-        <v>54.0370689117903</v>
+        <v>54.03706891179046</v>
       </c>
       <c r="I28" t="n">
-        <v>33.37189486608136</v>
+        <v>33.37189486608152</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822327</v>
+        <v>34.66738997822343</v>
       </c>
       <c r="S28" t="n">
-        <v>105.5549413765068</v>
+        <v>105.5549413765069</v>
       </c>
       <c r="T28" t="n">
-        <v>128.3365639112487</v>
+        <v>128.3365639112488</v>
       </c>
       <c r="U28" t="n">
-        <v>182.9323437792699</v>
+        <v>182.93234377927</v>
       </c>
       <c r="V28" t="n">
-        <v>156.7565003848392</v>
+        <v>156.7565003848393</v>
       </c>
       <c r="W28" t="n">
-        <v>181.9233864554525</v>
+        <v>181.9233864554526</v>
       </c>
       <c r="X28" t="n">
-        <v>127.5684884512556</v>
+        <v>127.5684884512557</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073234</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>288.7316531105166</v>
       </c>
       <c r="C29" t="n">
-        <v>276.7429700681983</v>
+        <v>276.7429700681984</v>
       </c>
       <c r="D29" t="n">
         <v>267.7242741127263</v>
       </c>
       <c r="E29" t="n">
-        <v>289.4664116826318</v>
+        <v>289.4664116826319</v>
       </c>
       <c r="F29" t="n">
         <v>308.638227770609</v>
       </c>
       <c r="G29" t="n">
-        <v>309.9771360190348</v>
+        <v>309.9771360190349</v>
       </c>
       <c r="H29" t="n">
         <v>222.0346248910547</v>
       </c>
       <c r="I29" t="n">
-        <v>46.80352542302693</v>
+        <v>46.80352542302697</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.44126410211646</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T29" t="n">
-        <v>118.1420964304938</v>
+        <v>118.1420964304939</v>
       </c>
       <c r="U29" t="n">
         <v>150.9174831389038</v>
@@ -2855,7 +2855,7 @@
         <v>257.5381298286526</v>
       </c>
       <c r="X29" t="n">
-        <v>276.8383880613992</v>
+        <v>276.8383880613993</v>
       </c>
       <c r="Y29" t="n">
         <v>288.234985857598</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.44188278383306</v>
+        <v>39.44188278383307</v>
       </c>
       <c r="S30" t="n">
         <v>145.364587523205</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.34836398521365</v>
+        <v>80.34836398521369</v>
       </c>
       <c r="C31" t="n">
-        <v>66.54835883061413</v>
+        <v>66.54835883061418</v>
       </c>
       <c r="D31" t="n">
-        <v>50.16972322819252</v>
+        <v>50.16972322819257</v>
       </c>
       <c r="E31" t="n">
-        <v>49.11747308397197</v>
+        <v>49.11747308397202</v>
       </c>
       <c r="F31" t="n">
-        <v>49.58439741215828</v>
+        <v>49.58439741215832</v>
       </c>
       <c r="G31" t="n">
-        <v>65.5924908565279</v>
+        <v>65.59249085652795</v>
       </c>
       <c r="H31" t="n">
-        <v>54.03706891179034</v>
+        <v>54.03706891179039</v>
       </c>
       <c r="I31" t="n">
-        <v>33.3718948660814</v>
+        <v>33.37189486608145</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66738997822331</v>
+        <v>34.66738997822335</v>
       </c>
       <c r="S31" t="n">
-        <v>105.5549413765068</v>
+        <v>105.5549413765069</v>
       </c>
       <c r="T31" t="n">
-        <v>128.3365639112487</v>
+        <v>128.3365639112488</v>
       </c>
       <c r="U31" t="n">
-        <v>182.9323437792699</v>
+        <v>182.93234377927</v>
       </c>
       <c r="V31" t="n">
-        <v>156.7565003848392</v>
+        <v>156.7565003848393</v>
       </c>
       <c r="W31" t="n">
         <v>181.9233864554525</v>
       </c>
       <c r="X31" t="n">
-        <v>127.5684884512556</v>
+        <v>127.5684884512557</v>
       </c>
       <c r="Y31" t="n">
         <v>118.4433562073233</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7316531105166</v>
+        <v>288.7316531105167</v>
       </c>
       <c r="C32" t="n">
-        <v>276.7429700681983</v>
+        <v>276.7429700681985</v>
       </c>
       <c r="D32" t="n">
-        <v>267.7242741127263</v>
+        <v>267.7242741127264</v>
       </c>
       <c r="E32" t="n">
-        <v>289.4664116826318</v>
+        <v>289.466411682632</v>
       </c>
       <c r="F32" t="n">
-        <v>308.638227770609</v>
+        <v>308.6382277706091</v>
       </c>
       <c r="G32" t="n">
-        <v>309.9771360190348</v>
+        <v>309.977136019035</v>
       </c>
       <c r="H32" t="n">
-        <v>222.0346248910546</v>
+        <v>222.0346248910548</v>
       </c>
       <c r="I32" t="n">
-        <v>46.80352542302691</v>
+        <v>46.8035254230271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211643</v>
+        <v>70.44126410211662</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1420964304938</v>
+        <v>118.142096430494</v>
       </c>
       <c r="U32" t="n">
-        <v>150.9174831389038</v>
+        <v>150.9174831389039</v>
       </c>
       <c r="V32" t="n">
-        <v>232.2380303506957</v>
+        <v>232.2380303506959</v>
       </c>
       <c r="W32" t="n">
-        <v>257.5381298286526</v>
+        <v>257.5381298286528</v>
       </c>
       <c r="X32" t="n">
-        <v>276.8383880613992</v>
+        <v>276.8383880613994</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.234985857598</v>
+        <v>288.2349858575981</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521364</v>
+        <v>80.34836398521382</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061412</v>
+        <v>66.5483588306143</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819251</v>
+        <v>50.16972322819269</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397196</v>
+        <v>49.11747308397214</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215827</v>
+        <v>49.58439741215845</v>
       </c>
       <c r="G34" t="n">
-        <v>65.5924908565279</v>
+        <v>65.59249085652809</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179033</v>
+        <v>54.03706891179051</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608139</v>
+        <v>33.37189486608158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6673899782233</v>
+        <v>34.66738997822348</v>
       </c>
       <c r="S34" t="n">
-        <v>105.5549413765068</v>
+        <v>105.554941376507</v>
       </c>
       <c r="T34" t="n">
-        <v>128.3365639112487</v>
+        <v>128.3365639112489</v>
       </c>
       <c r="U34" t="n">
-        <v>182.9323437792699</v>
+        <v>182.9323437792701</v>
       </c>
       <c r="V34" t="n">
-        <v>156.7565003848392</v>
+        <v>156.7565003848394</v>
       </c>
       <c r="W34" t="n">
-        <v>181.9233864554525</v>
+        <v>181.9233864554527</v>
       </c>
       <c r="X34" t="n">
-        <v>127.5684884512556</v>
+        <v>127.5684884512558</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073235</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>224.0531522757346</v>
       </c>
       <c r="C35" t="n">
-        <v>212.0644692334164</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D35" t="n">
         <v>203.0457732779443</v>
       </c>
       <c r="E35" t="n">
-        <v>224.7879108478499</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F35" t="n">
         <v>243.959726935827</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.762763267334492</v>
+        <v>5.762763267334476</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571187</v>
+        <v>53.46359559571183</v>
       </c>
       <c r="U35" t="n">
-        <v>86.23898230412183</v>
+        <v>86.23898230412181</v>
       </c>
       <c r="V35" t="n">
         <v>167.5595295159137</v>
@@ -3329,7 +3329,7 @@
         <v>192.8596289938706</v>
       </c>
       <c r="X35" t="n">
-        <v>212.1598872266173</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y35" t="n">
         <v>223.556485022816</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383307</v>
+        <v>39.44188278383482</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.83101502772825</v>
+        <v>15.66986315043167</v>
       </c>
       <c r="C37" t="n">
-        <v>1.869857995832177</v>
+        <v>1.869857995832149</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9139900217459589</v>
+        <v>0.9139900217459305</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>12.16115187729695</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.87644054172486</v>
+        <v>40.87644054172483</v>
       </c>
       <c r="T37" t="n">
-        <v>63.65806307646676</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U37" t="n">
-        <v>118.253842944488</v>
+        <v>118.2538429444879</v>
       </c>
       <c r="V37" t="n">
-        <v>92.07799955005729</v>
+        <v>92.07799955005726</v>
       </c>
       <c r="W37" t="n">
         <v>117.2448856206705</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>62.88998761647363</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.76485537254135</v>
+        <v>53.76485537254132</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3503,13 @@
         <v>224.0531522757346</v>
       </c>
       <c r="C38" t="n">
-        <v>212.0644692334164</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D38" t="n">
         <v>203.0457732779443</v>
       </c>
       <c r="E38" t="n">
-        <v>224.7879108478499</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F38" t="n">
         <v>243.959726935827</v>
@@ -3518,7 +3518,7 @@
         <v>245.2986351842529</v>
       </c>
       <c r="H38" t="n">
-        <v>157.3561240562727</v>
+        <v>157.3561240562726</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334492</v>
+        <v>5.762763267334448</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571187</v>
+        <v>53.4635955957118</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412183</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V38" t="n">
         <v>167.5595295159137</v>
@@ -3566,7 +3566,7 @@
         <v>192.8596289938706</v>
       </c>
       <c r="X38" t="n">
-        <v>212.1598872266173</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y38" t="n">
         <v>223.556485022816</v>
@@ -3630,7 +3630,7 @@
         <v>39.44188278383307</v>
       </c>
       <c r="S39" t="n">
-        <v>145.3645875232056</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T39" t="n">
         <v>185.5164475248238</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043169</v>
+        <v>27.83101502772868</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832177</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9139900217459589</v>
+        <v>0.913990021745902</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.60739031761011</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>42.44131295796993</v>
+        <v>40.8764405417248</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646676</v>
+        <v>63.6580630764667</v>
       </c>
       <c r="U40" t="n">
-        <v>118.253842944488</v>
+        <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.07799955005729</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206705</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647366</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.76485537254135</v>
+        <v>53.76485537254129</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>224.0531522757345</v>
       </c>
       <c r="C41" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D41" t="n">
         <v>203.0457732779442</v>
@@ -3749,7 +3749,7 @@
         <v>224.7879108478498</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G41" t="n">
         <v>245.2986351842528</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334391</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571174</v>
+        <v>53.46359559571178</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V41" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W41" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X41" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y41" t="n">
         <v>223.5564850228159</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217458452</v>
+        <v>0.9139900217458736</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172475</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646665</v>
+        <v>75.81921495376405</v>
       </c>
       <c r="U43" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005717</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W43" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647355</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.9260072498388</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383307</v>
+        <v>39.44188278383347</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4116,7 +4116,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790236</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.16115187729662</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
         <v>40.87644054172486</v>
@@ -4195,13 +4195,13 @@
         <v>92.07799955005729</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
         <v>62.88998761647366</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254135</v>
+        <v>95.9371181063965</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.6318290925451</v>
+        <v>1071.419974987671</v>
       </c>
       <c r="C11" t="n">
-        <v>593.6318290925451</v>
+        <v>820.0095203547701</v>
       </c>
       <c r="D11" t="n">
-        <v>536.3816336992325</v>
+        <v>820.0095203547701</v>
       </c>
       <c r="E11" t="n">
-        <v>536.3816336992325</v>
+        <v>820.0095203547701</v>
       </c>
       <c r="F11" t="n">
-        <v>536.3816336992325</v>
+        <v>536.381633699232</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695267</v>
+        <v>251.4013144695263</v>
       </c>
       <c r="H11" t="n">
-        <v>55.2518145610129</v>
+        <v>55.25181456101268</v>
       </c>
       <c r="I11" t="n">
         <v>36.10342522626458</v>
@@ -5042,19 +5042,19 @@
         <v>36.10342522626458</v>
       </c>
       <c r="K11" t="n">
-        <v>351.092525710092</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="L11" t="n">
-        <v>791.8343650009838</v>
+        <v>194.6935569969871</v>
       </c>
       <c r="M11" t="n">
-        <v>1088.253331347035</v>
+        <v>641.4734441720113</v>
       </c>
       <c r="N11" t="n">
-        <v>1088.253331347035</v>
+        <v>1088.253331347036</v>
       </c>
       <c r="O11" t="n">
-        <v>1492.399400986651</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P11" t="n">
         <v>1805.171261313229</v>
@@ -5066,25 +5066,25 @@
         <v>1805.171261313229</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262228</v>
+        <v>1762.146368262229</v>
       </c>
       <c r="T11" t="n">
         <v>1670.938816293675</v>
       </c>
       <c r="U11" t="n">
-        <v>1546.624813104506</v>
+        <v>1586.447046915614</v>
       </c>
       <c r="V11" t="n">
-        <v>1340.168843034739</v>
+        <v>1586.447046915614</v>
       </c>
       <c r="W11" t="n">
-        <v>1108.157216926631</v>
+        <v>1586.447046915614</v>
       </c>
       <c r="X11" t="n">
-        <v>856.6503804824157</v>
+        <v>1334.940210471399</v>
       </c>
       <c r="Y11" t="n">
-        <v>593.6318290925451</v>
+        <v>1334.940210471399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.4749977875981</v>
+        <v>715.1580161816551</v>
       </c>
       <c r="C12" t="n">
-        <v>593.2946290628441</v>
+        <v>553.4543434226098</v>
       </c>
       <c r="D12" t="n">
-        <v>454.4559920530562</v>
+        <v>446.2325105214408</v>
       </c>
       <c r="E12" t="n">
-        <v>437.9512861442188</v>
+        <v>299.204500578312</v>
       </c>
       <c r="F12" t="n">
-        <v>303.2574880940932</v>
+        <v>164.5107025281864</v>
       </c>
       <c r="G12" t="n">
-        <v>190.2615928709722</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H12" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I12" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J12" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K12" t="n">
-        <v>316.4321740980386</v>
+        <v>406.430883923859</v>
       </c>
       <c r="L12" t="n">
-        <v>316.4321740980386</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="M12" t="n">
-        <v>351.4373334401951</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="N12" t="n">
-        <v>798.2172206152192</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="O12" t="n">
-        <v>1244.997107790243</v>
+        <v>1287.390845033022</v>
       </c>
       <c r="P12" t="n">
-        <v>1607.2118143385</v>
+        <v>1649.605551581278</v>
       </c>
       <c r="Q12" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R12" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S12" t="n">
-        <v>1658.338344623123</v>
+        <v>1749.021363017179</v>
       </c>
       <c r="T12" t="n">
-        <v>1601.471297622239</v>
+        <v>1561.631011982004</v>
       </c>
       <c r="U12" t="n">
-        <v>1382.997638291259</v>
+        <v>1473.680656685315</v>
       </c>
       <c r="V12" t="n">
-        <v>1285.125319773884</v>
+        <v>1245.285034133649</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.809451007194</v>
+        <v>1003.969165366959</v>
       </c>
       <c r="X12" t="n">
-        <v>976.4157669192801</v>
+        <v>936.5754812790456</v>
       </c>
       <c r="Y12" t="n">
-        <v>783.894440568859</v>
+        <v>744.0541549286244</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716726</v>
+        <v>211.3509679716714</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676443</v>
+        <v>172.2583024676433</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296984</v>
+        <v>149.7097133296975</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253086</v>
+        <v>128.2240031253079</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853771</v>
+        <v>106.2666521853766</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749646</v>
+        <v>68.13950988749613</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813863</v>
+        <v>41.68451096813847</v>
       </c>
       <c r="I13" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8279990958395</v>
+        <v>77.19703091866677</v>
       </c>
       <c r="K13" t="n">
-        <v>188.0975858785158</v>
+        <v>269.3925079853521</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2407404269283</v>
+        <v>409.2407404269252</v>
       </c>
       <c r="M13" t="n">
-        <v>568.6085404209463</v>
+        <v>568.6085404209432</v>
       </c>
       <c r="N13" t="n">
-        <v>727.4213878049134</v>
+        <v>727.4213878049103</v>
       </c>
       <c r="O13" t="n">
-        <v>863.1922036467168</v>
+        <v>991.1180939307229</v>
       </c>
       <c r="P13" t="n">
-        <v>1086.009306047126</v>
+        <v>1086.009306047123</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.009306047126</v>
+        <v>1086.009306047123</v>
       </c>
       <c r="R13" t="n">
-        <v>1079.119639383896</v>
+        <v>1079.119639383893</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449673</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813673</v>
+        <v>899.1213915813651</v>
       </c>
       <c r="U13" t="n">
-        <v>742.469145321121</v>
+        <v>742.469145321119</v>
       </c>
       <c r="V13" t="n">
-        <v>612.257144913835</v>
+        <v>612.2571449138331</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655255</v>
+        <v>456.6240474655237</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951926</v>
+        <v>355.8948873951911</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217611</v>
+        <v>264.3830326217597</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1065.123546879624</v>
+        <v>1558.83466225101</v>
       </c>
       <c r="C14" t="n">
-        <v>1065.123546879624</v>
+        <v>1307.424207618109</v>
       </c>
       <c r="D14" t="n">
         <v>1065.123546879624</v>
       </c>
       <c r="E14" t="n">
-        <v>800.861131020022</v>
+        <v>800.8611310200221</v>
       </c>
       <c r="F14" t="n">
         <v>517.2332443644839</v>
       </c>
       <c r="G14" t="n">
-        <v>232.2529251347783</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="H14" t="n">
         <v>36.10342522626458</v>
@@ -5276,22 +5276,22 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J14" t="n">
-        <v>158.0430464355078</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K14" t="n">
-        <v>200.7316048811192</v>
+        <v>351.092525710092</v>
       </c>
       <c r="L14" t="n">
-        <v>641.473444172011</v>
+        <v>791.8343650009838</v>
       </c>
       <c r="M14" t="n">
-        <v>1088.253331347035</v>
+        <v>1238.614252176008</v>
       </c>
       <c r="N14" t="n">
-        <v>1088.253331347035</v>
+        <v>1685.394139351032</v>
       </c>
       <c r="O14" t="n">
-        <v>1492.399400986651</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="P14" t="n">
         <v>1805.171261313229</v>
@@ -5306,22 +5306,22 @@
         <v>1762.146368262229</v>
       </c>
       <c r="T14" t="n">
-        <v>1762.146368262229</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="U14" t="n">
-        <v>1637.832365073059</v>
+        <v>1558.83466225101</v>
       </c>
       <c r="V14" t="n">
-        <v>1637.832365073059</v>
+        <v>1558.83466225101</v>
       </c>
       <c r="W14" t="n">
-        <v>1405.820738964952</v>
+        <v>1558.83466225101</v>
       </c>
       <c r="X14" t="n">
-        <v>1328.643782363351</v>
+        <v>1558.83466225101</v>
       </c>
       <c r="Y14" t="n">
-        <v>1328.643782363351</v>
+        <v>1558.83466225101</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>545.1668839257101</v>
+        <v>673.574161227632</v>
       </c>
       <c r="C15" t="n">
-        <v>383.4632111666648</v>
+        <v>511.8704884685867</v>
       </c>
       <c r="D15" t="n">
-        <v>244.6245741568769</v>
+        <v>503.5551554930902</v>
       </c>
       <c r="E15" t="n">
-        <v>97.5965642137481</v>
+        <v>356.5271455499615</v>
       </c>
       <c r="F15" t="n">
-        <v>93.42607019791399</v>
+        <v>221.8333474998358</v>
       </c>
       <c r="G15" t="n">
         <v>93.42607019791399</v>
@@ -5355,52 +5355,52 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J15" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K15" t="n">
-        <v>316.4321740980386</v>
+        <v>406.430883923859</v>
       </c>
       <c r="L15" t="n">
-        <v>351.4373334401951</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="M15" t="n">
-        <v>351.4373334401951</v>
+        <v>996.1766675899489</v>
       </c>
       <c r="N15" t="n">
-        <v>798.2172206152192</v>
+        <v>996.1766675899489</v>
       </c>
       <c r="O15" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q15" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.330975672993</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.498058982887</v>
+        <v>1788.861648657415</v>
       </c>
       <c r="T15" t="n">
-        <v>1522.16318376035</v>
+        <v>1601.471297622239</v>
       </c>
       <c r="U15" t="n">
-        <v>1434.212828463662</v>
+        <v>1382.997638291259</v>
       </c>
       <c r="V15" t="n">
-        <v>1336.340509946288</v>
+        <v>1154.602015739593</v>
       </c>
       <c r="W15" t="n">
-        <v>1095.024641179598</v>
+        <v>1043.809451007195</v>
       </c>
       <c r="X15" t="n">
-        <v>897.1076530573922</v>
+        <v>894.9916263250225</v>
       </c>
       <c r="Y15" t="n">
-        <v>704.586326706971</v>
+        <v>832.9936040088928</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716714</v>
+        <v>211.3509679716718</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676433</v>
+        <v>172.2583024676436</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296975</v>
+        <v>149.7097133296978</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253079</v>
+        <v>128.2240031253081</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853766</v>
+        <v>106.2666521853768</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749612</v>
+        <v>68.13950988749625</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813846</v>
+        <v>41.68451096813853</v>
       </c>
       <c r="I16" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J16" t="n">
-        <v>36.10342522626458</v>
+        <v>92.86583671997144</v>
       </c>
       <c r="K16" t="n">
-        <v>141.4666177013429</v>
+        <v>157.1354235026477</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2407404269252</v>
+        <v>296.9836559442208</v>
       </c>
       <c r="M16" t="n">
-        <v>568.6085404209432</v>
+        <v>456.3514559382388</v>
       </c>
       <c r="N16" t="n">
-        <v>727.4213878049103</v>
+        <v>743.0901936062149</v>
       </c>
       <c r="O16" t="n">
-        <v>991.1180939307229</v>
+        <v>878.8610094480184</v>
       </c>
       <c r="P16" t="n">
-        <v>1086.009306047123</v>
+        <v>973.7522215644182</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.009306047123</v>
+        <v>1086.009306047124</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383893</v>
+        <v>1079.119639383894</v>
       </c>
       <c r="S16" t="n">
         <v>1000.626385449671</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813651</v>
+        <v>899.1213915813659</v>
       </c>
       <c r="U16" t="n">
-        <v>742.469145321119</v>
+        <v>742.4691453211196</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138331</v>
+        <v>612.2571449138337</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655237</v>
+        <v>456.6240474655243</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951911</v>
+        <v>355.8948873951916</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217597</v>
+        <v>264.3830326217602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753425</v>
+        <v>851.3864477753427</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054108</v>
+        <v>700.2933390054109</v>
       </c>
       <c r="E17" t="n">
         <v>527.2384751143622</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273772</v>
+        <v>334.8181404273771</v>
       </c>
       <c r="G17" t="n">
         <v>141.0453731662251</v>
@@ -5516,19 +5516,19 @@
         <v>158.0430464355078</v>
       </c>
       <c r="K17" t="n">
-        <v>158.0430464355078</v>
+        <v>473.0321469193353</v>
       </c>
       <c r="L17" t="n">
-        <v>440.8650589599372</v>
+        <v>473.0321469193353</v>
       </c>
       <c r="M17" t="n">
-        <v>887.6449461349613</v>
+        <v>483.4988764953453</v>
       </c>
       <c r="N17" t="n">
-        <v>1334.424833309985</v>
+        <v>930.2787636703695</v>
       </c>
       <c r="O17" t="n">
-        <v>1334.424833309985</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P17" t="n">
         <v>1647.196693636563</v>
@@ -5549,10 +5549,10 @@
         <v>1772.064810092613</v>
       </c>
       <c r="V17" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851845</v>
       </c>
       <c r="X17" t="n">
         <v>1355.713033376182</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>429.3364187084937</v>
+        <v>675.6901879600016</v>
       </c>
       <c r="C18" t="n">
-        <v>267.6327459494484</v>
+        <v>513.9865152009563</v>
       </c>
       <c r="D18" t="n">
-        <v>267.6327459494484</v>
+        <v>375.1478781911684</v>
       </c>
       <c r="E18" t="n">
-        <v>267.6327459494484</v>
+        <v>228.1198682480396</v>
       </c>
       <c r="F18" t="n">
-        <v>132.9389478993228</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="G18" t="n">
-        <v>132.9389478993228</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H18" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I18" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J18" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K18" t="n">
-        <v>316.4321740980386</v>
+        <v>406.430883923859</v>
       </c>
       <c r="L18" t="n">
-        <v>750.6122480321773</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="M18" t="n">
-        <v>798.2172206152192</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="N18" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P18" t="n">
         <v>1607.2118143385</v>
@@ -5616,28 +5616,28 @@
         <v>1805.171261313229</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S18" t="n">
-        <v>1662.248351296471</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T18" t="n">
-        <v>1474.858000261296</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U18" t="n">
-        <v>1256.384340930316</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V18" t="n">
-        <v>1027.98871837865</v>
+        <v>984.2384260650665</v>
       </c>
       <c r="W18" t="n">
-        <v>786.67284961196</v>
+        <v>835.1096307412624</v>
       </c>
       <c r="X18" t="n">
-        <v>588.7558614897546</v>
+        <v>835.1096307412624</v>
       </c>
       <c r="Y18" t="n">
-        <v>588.7558614897546</v>
+        <v>835.1096307412624</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5692,31 @@
         <v>789.0639197867022</v>
       </c>
       <c r="Q19" t="n">
-        <v>789.0639197867022</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="R19" t="n">
-        <v>789.0639197867022</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="S19" t="n">
-        <v>580.0473618181878</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="T19" t="n">
-        <v>348.0190639155908</v>
+        <v>658.2657363487938</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5743696238977</v>
+        <v>371.0901860542562</v>
       </c>
       <c r="V19" t="n">
-        <v>243.569921185165</v>
+        <v>110.3548816126788</v>
       </c>
       <c r="W19" t="n">
-        <v>179.1443757054087</v>
+        <v>45.9293361329225</v>
       </c>
       <c r="X19" t="n">
-        <v>169.622767603629</v>
+        <v>36.40772803114288</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.3184647987507</v>
+        <v>36.10342522626458</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753431</v>
+        <v>851.386447775343</v>
       </c>
       <c r="D20" t="n">
         <v>700.2933390054112</v>
@@ -5753,19 +5753,19 @@
         <v>158.0430464355078</v>
       </c>
       <c r="K20" t="n">
-        <v>158.0430464355078</v>
+        <v>473.0321469193353</v>
       </c>
       <c r="L20" t="n">
-        <v>158.0430464355078</v>
+        <v>913.7739862102271</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4988764953449</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="N20" t="n">
-        <v>930.278763670369</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="O20" t="n">
-        <v>1334.424833309985</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P20" t="n">
         <v>1647.196693636563</v>
@@ -5792,10 +5792,10 @@
         <v>1516.012317851845</v>
       </c>
       <c r="X20" t="n">
-        <v>1355.713033376183</v>
+        <v>1355.713033376182</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.8977167345946</v>
+        <v>804.0974652619234</v>
       </c>
       <c r="C21" t="n">
-        <v>339.8977167345946</v>
+        <v>642.3937925028781</v>
       </c>
       <c r="D21" t="n">
-        <v>339.8977167345946</v>
+        <v>503.5551554930902</v>
       </c>
       <c r="E21" t="n">
-        <v>318.6688701728939</v>
+        <v>356.5271455499615</v>
       </c>
       <c r="F21" t="n">
-        <v>318.6688701728939</v>
+        <v>221.8333474998358</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2615928709722</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H21" t="n">
         <v>93.42607019791399</v>
@@ -5829,22 +5829,22 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J21" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K21" t="n">
-        <v>279.4719660543126</v>
+        <v>406.430883923859</v>
       </c>
       <c r="L21" t="n">
-        <v>713.6520399884513</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="M21" t="n">
-        <v>1160.431927163475</v>
+        <v>840.6109578579976</v>
       </c>
       <c r="N21" t="n">
-        <v>1607.2118143385</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="O21" t="n">
-        <v>1607.2118143385</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P21" t="n">
         <v>1607.2118143385</v>
@@ -5853,28 +5853,28 @@
         <v>1805.171261313229</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.330975672993</v>
+        <v>1789.326208866498</v>
       </c>
       <c r="S21" t="n">
-        <v>1765.330975672993</v>
+        <v>1789.326208866498</v>
       </c>
       <c r="T21" t="n">
-        <v>1577.940624637818</v>
+        <v>1601.935857831322</v>
       </c>
       <c r="U21" t="n">
-        <v>1359.466965306838</v>
+        <v>1601.935857831322</v>
       </c>
       <c r="V21" t="n">
-        <v>1131.071342755172</v>
+        <v>1595.2710912825</v>
       </c>
       <c r="W21" t="n">
-        <v>889.7554739884821</v>
+        <v>1353.955222515811</v>
       </c>
       <c r="X21" t="n">
-        <v>691.8384858662766</v>
+        <v>1156.038234393605</v>
       </c>
       <c r="Y21" t="n">
-        <v>499.3171595158555</v>
+        <v>963.5169080431842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>462.6529080725889</v>
+        <v>358.7912879368216</v>
       </c>
       <c r="C22" t="n">
-        <v>293.0369385342692</v>
+        <v>189.1753183985019</v>
       </c>
       <c r="D22" t="n">
-        <v>139.9650453620319</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="E22" t="n">
-        <v>139.9650453620319</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="F22" t="n">
-        <v>139.9650453620319</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G22" t="n">
-        <v>139.9650453620319</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H22" t="n">
         <v>36.10342522626458</v>
@@ -5929,31 +5929,31 @@
         <v>789.0639197867022</v>
       </c>
       <c r="Q22" t="n">
-        <v>789.0639197867022</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="R22" t="n">
-        <v>651.6509490891813</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="S22" t="n">
-        <v>651.6509490891813</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="T22" t="n">
-        <v>641.3535071894288</v>
+        <v>762.7795318597041</v>
       </c>
       <c r="U22" t="n">
-        <v>575.9088128977357</v>
+        <v>697.334837568011</v>
       </c>
       <c r="V22" t="n">
-        <v>536.904364459003</v>
+        <v>658.3303891292783</v>
       </c>
       <c r="W22" t="n">
-        <v>472.4788189792467</v>
+        <v>593.904843649522</v>
       </c>
       <c r="X22" t="n">
-        <v>462.9572108774672</v>
+        <v>584.3832355477424</v>
       </c>
       <c r="Y22" t="n">
-        <v>462.6529080725889</v>
+        <v>542.3466566212014</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C23" t="n">
-        <v>851.3864477753433</v>
+        <v>851.3864477753428</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054116</v>
+        <v>700.2933390054111</v>
       </c>
       <c r="E23" t="n">
-        <v>527.238475114363</v>
+        <v>527.2384751143626</v>
       </c>
       <c r="F23" t="n">
-        <v>334.818140427378</v>
+        <v>334.8181404273776</v>
       </c>
       <c r="G23" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662249</v>
       </c>
       <c r="H23" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626446</v>
       </c>
       <c r="I23" t="n">
         <v>36.10342522626458</v>
@@ -5990,22 +5990,22 @@
         <v>36.10342522626458</v>
       </c>
       <c r="K23" t="n">
-        <v>66.72357803267244</v>
+        <v>351.092525710092</v>
       </c>
       <c r="L23" t="n">
-        <v>507.4654173235642</v>
+        <v>791.8343650009838</v>
       </c>
       <c r="M23" t="n">
-        <v>954.2453044985883</v>
+        <v>791.8343650009838</v>
       </c>
       <c r="N23" t="n">
-        <v>1401.025191673612</v>
+        <v>930.2787636703695</v>
       </c>
       <c r="O23" t="n">
-        <v>1805.171261313229</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P23" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q23" t="n">
         <v>1805.171261313229</v>
@@ -6017,13 +6017,13 @@
         <v>1805.171261313229</v>
       </c>
       <c r="T23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U23" t="n">
         <v>1772.064810092613</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.8163919914</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W23" t="n">
         <v>1516.012317851845</v>
@@ -6032,7 +6032,7 @@
         <v>1355.713033376183</v>
       </c>
       <c r="Y23" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>339.8977167345946</v>
+        <v>739.2293151759362</v>
       </c>
       <c r="C24" t="n">
-        <v>178.1940439755492</v>
+        <v>739.2293151759362</v>
       </c>
       <c r="D24" t="n">
-        <v>178.1940439755492</v>
+        <v>600.3906781661483</v>
       </c>
       <c r="E24" t="n">
-        <v>178.1940439755492</v>
+        <v>453.3626682230196</v>
       </c>
       <c r="F24" t="n">
-        <v>178.1940439755492</v>
+        <v>318.6688701728939</v>
       </c>
       <c r="G24" t="n">
-        <v>178.1940439755492</v>
+        <v>190.2615928709722</v>
       </c>
       <c r="H24" t="n">
-        <v>81.35852130249107</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I24" t="n">
         <v>36.10342522626458</v>
@@ -6069,19 +6069,19 @@
         <v>126.102135052085</v>
       </c>
       <c r="K24" t="n">
-        <v>126.102135052085</v>
+        <v>406.430883923859</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2822089862236</v>
+        <v>406.430883923859</v>
       </c>
       <c r="M24" t="n">
-        <v>560.2822089862236</v>
+        <v>406.430883923859</v>
       </c>
       <c r="N24" t="n">
-        <v>798.2172206152192</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="O24" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P24" t="n">
         <v>1607.2118143385</v>
@@ -6090,28 +6090,28 @@
         <v>1805.171261313229</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.330975672993</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S24" t="n">
-        <v>1765.330975672993</v>
+        <v>1658.338344623123</v>
       </c>
       <c r="T24" t="n">
-        <v>1577.940624637818</v>
+        <v>1470.947993587948</v>
       </c>
       <c r="U24" t="n">
-        <v>1359.466965306838</v>
+        <v>1470.947993587948</v>
       </c>
       <c r="V24" t="n">
-        <v>1131.071342755172</v>
+        <v>1242.552371036282</v>
       </c>
       <c r="W24" t="n">
-        <v>889.7554739884821</v>
+        <v>1001.236502269592</v>
       </c>
       <c r="X24" t="n">
-        <v>691.8384858662766</v>
+        <v>803.3195141473861</v>
       </c>
       <c r="Y24" t="n">
-        <v>499.3171595158555</v>
+        <v>739.2293151759362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>193.0817281799138</v>
+        <v>341.6559733727248</v>
       </c>
       <c r="C25" t="n">
-        <v>193.0817281799138</v>
+        <v>341.6559733727248</v>
       </c>
       <c r="D25" t="n">
-        <v>193.0817281799138</v>
+        <v>188.5840802004875</v>
       </c>
       <c r="E25" t="n">
-        <v>193.0817281799138</v>
+        <v>188.5840802004875</v>
       </c>
       <c r="F25" t="n">
-        <v>193.0817281799138</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G25" t="n">
-        <v>193.0817281799138</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H25" t="n">
         <v>36.10342522626458</v>
@@ -6166,31 +6166,31 @@
         <v>789.0639197867022</v>
       </c>
       <c r="Q25" t="n">
-        <v>789.0639197867022</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="R25" t="n">
-        <v>651.6509490891813</v>
+        <v>773.0769737594566</v>
       </c>
       <c r="S25" t="n">
-        <v>651.6509490891813</v>
+        <v>564.0604157909422</v>
       </c>
       <c r="T25" t="n">
-        <v>641.3535071894288</v>
+        <v>520.3565724895647</v>
       </c>
       <c r="U25" t="n">
-        <v>575.9088128977357</v>
+        <v>454.9118781978716</v>
       </c>
       <c r="V25" t="n">
-        <v>536.904364459003</v>
+        <v>415.9074297591388</v>
       </c>
       <c r="W25" t="n">
-        <v>472.4788189792467</v>
+        <v>351.4818842793826</v>
       </c>
       <c r="X25" t="n">
-        <v>462.9572108774672</v>
+        <v>341.960276177603</v>
       </c>
       <c r="Y25" t="n">
-        <v>240.9220520697442</v>
+        <v>341.6559733727248</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>1808.955690151401</v>
       </c>
       <c r="C26" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.41733654716</v>
       </c>
       <c r="D26" t="n">
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063946</v>
+        <v>966.5984620063944</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795169</v>
+        <v>654.8426763795164</v>
       </c>
       <c r="G26" t="n">
-        <v>341.7344581784715</v>
+        <v>341.734458178471</v>
       </c>
       <c r="H26" t="n">
-        <v>117.4570592986183</v>
+        <v>117.4570592986185</v>
       </c>
       <c r="I26" t="n">
-        <v>70.18077099253057</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J26" t="n">
-        <v>192.1203922017738</v>
+        <v>292.4781287039729</v>
       </c>
       <c r="K26" t="n">
-        <v>607.4672291878004</v>
+        <v>707.8249656899993</v>
       </c>
       <c r="L26" t="n">
-        <v>1148.566804980891</v>
+        <v>1248.92454148309</v>
       </c>
       <c r="M26" t="n">
-        <v>1700.905958240504</v>
+        <v>1845.842154418088</v>
       </c>
       <c r="N26" t="n">
-        <v>2284.587600719315</v>
+        <v>2384.945337221515</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.09140686113</v>
+        <v>2789.091406861131</v>
       </c>
       <c r="P26" t="n">
-        <v>3202.221003689906</v>
+        <v>3202.221003689908</v>
       </c>
       <c r="Q26" t="n">
-        <v>3460.553307868772</v>
+        <v>3460.553307868773</v>
       </c>
       <c r="R26" t="n">
-        <v>3509.038549626528</v>
+        <v>3509.03854962653</v>
       </c>
       <c r="S26" t="n">
-        <v>3437.885757604189</v>
+        <v>3437.88575760419</v>
       </c>
       <c r="T26" t="n">
-        <v>3318.550306664296</v>
+        <v>3318.550306664297</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X26" t="n">
         <v>2391.750274967679</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1896.932088357788</v>
+        <v>935.0103337012475</v>
       </c>
       <c r="C27" t="n">
-        <v>1735.228415598743</v>
+        <v>773.3066609422023</v>
       </c>
       <c r="D27" t="n">
-        <v>1596.389778588955</v>
+        <v>634.4680239324143</v>
       </c>
       <c r="E27" t="n">
-        <v>1449.361768645826</v>
+        <v>487.4400139892856</v>
       </c>
       <c r="F27" t="n">
-        <v>1314.6679705957</v>
+        <v>352.74621593916</v>
       </c>
       <c r="G27" t="n">
-        <v>1186.260693293779</v>
+        <v>224.3389386372382</v>
       </c>
       <c r="H27" t="n">
-        <v>1089.42517062072</v>
+        <v>127.50341596418</v>
       </c>
       <c r="I27" t="n">
-        <v>1032.102525649071</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J27" t="n">
-        <v>1122.101235474891</v>
+        <v>160.179480818351</v>
       </c>
       <c r="K27" t="n">
-        <v>1122.101235474891</v>
+        <v>160.179480818351</v>
       </c>
       <c r="L27" t="n">
-        <v>1556.28130940903</v>
+        <v>594.3595547524897</v>
       </c>
       <c r="M27" t="n">
-        <v>1888.6105264311</v>
+        <v>1159.163736980979</v>
       </c>
       <c r="N27" t="n">
-        <v>2481.758297743148</v>
+        <v>1519.836543086608</v>
       </c>
       <c r="O27" t="n">
-        <v>2948.864396103543</v>
+        <v>1986.942641447003</v>
       </c>
       <c r="P27" t="n">
-        <v>3311.0791026518</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q27" t="n">
-        <v>3509.038549626528</v>
+        <v>2547.116794969988</v>
       </c>
       <c r="R27" t="n">
-        <v>3469.198263986293</v>
+        <v>2507.276509329753</v>
       </c>
       <c r="S27" t="n">
-        <v>3322.365347296187</v>
+        <v>2360.443592639646</v>
       </c>
       <c r="T27" t="n">
-        <v>3134.974996261011</v>
+        <v>2173.053241604471</v>
       </c>
       <c r="U27" t="n">
-        <v>2916.501336930031</v>
+        <v>1954.579582273491</v>
       </c>
       <c r="V27" t="n">
-        <v>2688.105714378366</v>
+        <v>1726.183959721825</v>
       </c>
       <c r="W27" t="n">
-        <v>2446.789845611675</v>
+        <v>1484.868090955135</v>
       </c>
       <c r="X27" t="n">
-        <v>2248.87285748947</v>
+        <v>1286.95110283293</v>
       </c>
       <c r="Y27" t="n">
-        <v>2056.351531139049</v>
+        <v>1094.429776482508</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373147</v>
+        <v>442.3236065373159</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619469</v>
+        <v>375.1030420619479</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526615</v>
+        <v>324.4265539526624</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769323</v>
+        <v>274.812944776933</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656614</v>
+        <v>224.7276948656619</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964413</v>
+        <v>158.4726535964417</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8897557057441</v>
+        <v>103.8897557057442</v>
       </c>
       <c r="I28" t="n">
-        <v>70.18077099253057</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3371910802958</v>
+        <v>130.3371910802956</v>
       </c>
       <c r="K28" t="n">
-        <v>294.9645143651712</v>
+        <v>294.9645143651709</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089435</v>
+        <v>535.1704833089431</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051607</v>
+        <v>794.8960198051625</v>
       </c>
       <c r="N28" t="n">
-        <v>1054.066603691327</v>
+        <v>1054.066603691329</v>
       </c>
       <c r="O28" t="n">
-        <v>1290.195156035328</v>
+        <v>1290.195156035331</v>
       </c>
       <c r="P28" t="n">
-        <v>1485.444104653927</v>
+        <v>1485.44410465393</v>
       </c>
       <c r="Q28" t="n">
-        <v>1570.133035354823</v>
+        <v>1570.133035354825</v>
       </c>
       <c r="R28" t="n">
-        <v>1535.115469720254</v>
+        <v>1535.115469720256</v>
       </c>
       <c r="S28" t="n">
-        <v>1428.494316814691</v>
+        <v>1428.494316814694</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.861423975046</v>
+        <v>1298.861423975048</v>
       </c>
       <c r="U28" t="n">
-        <v>1114.08127874346</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V28" t="n">
-        <v>955.741379364835</v>
+        <v>955.7413793648367</v>
       </c>
       <c r="W28" t="n">
-        <v>771.980382945186</v>
+        <v>771.9803829451876</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035137</v>
+        <v>643.123323903515</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587426</v>
+        <v>523.4835701587439</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1808.955690151401</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.41733654716</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D29" t="n">
         <v>1258.988776837336</v>
       </c>
       <c r="E29" t="n">
-        <v>966.5984620063946</v>
+        <v>966.5984620063952</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795169</v>
+        <v>654.8426763795173</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7344581784716</v>
+        <v>341.734458178472</v>
       </c>
       <c r="H29" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I29" t="n">
-        <v>70.18077099253058</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J29" t="n">
         <v>292.478128703973</v>
@@ -6467,46 +6467,46 @@
         <v>707.8249656899995</v>
       </c>
       <c r="L29" t="n">
-        <v>1204.346081807706</v>
+        <v>1248.92454148309</v>
       </c>
       <c r="M29" t="n">
-        <v>1801.263694742704</v>
+        <v>1845.842154418089</v>
       </c>
       <c r="N29" t="n">
-        <v>2384.945337221514</v>
+        <v>2429.523796896899</v>
       </c>
       <c r="O29" t="n">
-        <v>2889.44914336333</v>
+        <v>2934.027603038714</v>
       </c>
       <c r="P29" t="n">
-        <v>3302.578740192106</v>
+        <v>3302.578740192107</v>
       </c>
       <c r="Q29" t="n">
-        <v>3460.553307868772</v>
+        <v>3460.553307868773</v>
       </c>
       <c r="R29" t="n">
-        <v>3509.038549626529</v>
+        <v>3509.03854962653</v>
       </c>
       <c r="S29" t="n">
-        <v>3437.885757604189</v>
+        <v>3437.88575760419</v>
       </c>
       <c r="T29" t="n">
-        <v>3318.550306664296</v>
+        <v>3318.550306664297</v>
       </c>
       <c r="U29" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.750274967678</v>
+        <v>2391.75027496768</v>
       </c>
       <c r="Y29" t="n">
-        <v>2100.603824606468</v>
+        <v>2100.603824606469</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>127.50341596418</v>
       </c>
       <c r="I30" t="n">
-        <v>70.18077099253058</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J30" t="n">
         <v>160.179480818351</v>
@@ -6546,13 +6546,13 @@
         <v>440.5082296901251</v>
       </c>
       <c r="L30" t="n">
-        <v>874.6883036242638</v>
+        <v>828.9906879064648</v>
       </c>
       <c r="M30" t="n">
-        <v>1439.492485852753</v>
+        <v>1393.794870134954</v>
       </c>
       <c r="N30" t="n">
-        <v>1519.836543086608</v>
+        <v>1986.942641447003</v>
       </c>
       <c r="O30" t="n">
         <v>1986.942641447003</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.3236065373155</v>
+        <v>442.3236065373154</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619477</v>
+        <v>375.1030420619476</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526623</v>
+        <v>324.4265539526622</v>
       </c>
       <c r="E31" t="n">
-        <v>274.812944776933</v>
+        <v>274.8129447769329</v>
       </c>
       <c r="F31" t="n">
-        <v>224.727694865662</v>
+        <v>224.7276948656618</v>
       </c>
       <c r="G31" t="n">
-        <v>158.4726535964419</v>
+        <v>158.4726535964417</v>
       </c>
       <c r="H31" t="n">
-        <v>103.8897557057446</v>
+        <v>103.8897557057442</v>
       </c>
       <c r="I31" t="n">
-        <v>70.18077099253058</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3371910802958</v>
+        <v>130.337191080296</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651711</v>
+        <v>294.9645143651712</v>
       </c>
       <c r="L31" t="n">
-        <v>535.1704833089434</v>
+        <v>535.1704833089435</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051607</v>
       </c>
       <c r="N31" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O31" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P31" t="n">
         <v>1485.444104653928</v>
@@ -6643,7 +6643,7 @@
         <v>1570.133035354824</v>
       </c>
       <c r="R31" t="n">
-        <v>1535.115469720254</v>
+        <v>1535.115469720255</v>
       </c>
       <c r="S31" t="n">
         <v>1428.494316814692</v>
@@ -6652,13 +6652,13 @@
         <v>1298.861423975047</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V31" t="n">
-        <v>955.7413793648359</v>
+        <v>955.741379364836</v>
       </c>
       <c r="W31" t="n">
-        <v>771.9803829451869</v>
+        <v>771.980382945187</v>
       </c>
       <c r="X31" t="n">
         <v>643.1233239035146</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.955690151401</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.41733654716</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D32" t="n">
-        <v>1258.988776837336</v>
+        <v>1258.988776837337</v>
       </c>
       <c r="E32" t="n">
-        <v>966.5984620063946</v>
+        <v>966.5984620063953</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795169</v>
+        <v>654.8426763795173</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784716</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H32" t="n">
-        <v>117.4570592986184</v>
+        <v>117.4570592986186</v>
       </c>
       <c r="I32" t="n">
-        <v>70.18077099253058</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J32" t="n">
-        <v>192.1203922017738</v>
+        <v>292.4781287039729</v>
       </c>
       <c r="K32" t="n">
-        <v>607.4672291878004</v>
+        <v>707.8249656899993</v>
       </c>
       <c r="L32" t="n">
-        <v>1148.566804980891</v>
+        <v>1248.92454148309</v>
       </c>
       <c r="M32" t="n">
-        <v>1700.905958240505</v>
+        <v>1845.842154418088</v>
       </c>
       <c r="N32" t="n">
-        <v>2284.587600719315</v>
+        <v>2384.945337221515</v>
       </c>
       <c r="O32" t="n">
         <v>2789.091406861131</v>
       </c>
       <c r="P32" t="n">
-        <v>3202.221003689907</v>
+        <v>3202.221003689908</v>
       </c>
       <c r="Q32" t="n">
-        <v>3460.553307868772</v>
+        <v>3460.553307868773</v>
       </c>
       <c r="R32" t="n">
-        <v>3509.038549626529</v>
+        <v>3509.03854962653</v>
       </c>
       <c r="S32" t="n">
-        <v>3437.885757604189</v>
+        <v>3437.88575760419</v>
       </c>
       <c r="T32" t="n">
-        <v>3318.550306664296</v>
+        <v>3318.550306664298</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503789</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462682</v>
       </c>
       <c r="W32" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X32" t="n">
-        <v>2391.750274967678</v>
+        <v>2391.750274967679</v>
       </c>
       <c r="Y32" t="n">
-        <v>2100.603824606468</v>
+        <v>2100.603824606469</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>127.50341596418</v>
       </c>
       <c r="I33" t="n">
-        <v>70.18077099253058</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J33" t="n">
-        <v>160.179480818351</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="K33" t="n">
-        <v>440.5082296901251</v>
+        <v>350.5095198643047</v>
       </c>
       <c r="L33" t="n">
-        <v>874.6883036242637</v>
+        <v>361.8845895460701</v>
       </c>
       <c r="M33" t="n">
-        <v>1439.492485852753</v>
+        <v>926.6887717745594</v>
       </c>
       <c r="N33" t="n">
         <v>1519.836543086608</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.323606537315</v>
+        <v>442.3236065373163</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619471</v>
+        <v>375.1030420619483</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526618</v>
+        <v>324.4265539526627</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8129447769325</v>
+        <v>274.8129447769333</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656615</v>
+        <v>224.7276948656621</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964414</v>
+        <v>158.4726535964418</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8897557057441</v>
+        <v>103.8897557057443</v>
       </c>
       <c r="I34" t="n">
-        <v>70.18077099253058</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3371910802957</v>
+        <v>130.3371910802956</v>
       </c>
       <c r="K34" t="n">
-        <v>294.9645143651711</v>
+        <v>294.9645143651708</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089434</v>
+        <v>535.1704833089429</v>
       </c>
       <c r="M34" t="n">
-        <v>794.8960198051606</v>
+        <v>794.89601980516</v>
       </c>
       <c r="N34" t="n">
-        <v>1054.066603691327</v>
+        <v>1054.066603691326</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.195156035332</v>
       </c>
       <c r="P34" t="n">
-        <v>1485.444104653928</v>
+        <v>1485.44410465393</v>
       </c>
       <c r="Q34" t="n">
-        <v>1570.133035354823</v>
+        <v>1570.133035354826</v>
       </c>
       <c r="R34" t="n">
-        <v>1535.115469720254</v>
+        <v>1535.115469720257</v>
       </c>
       <c r="S34" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814694</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.861423975046</v>
+        <v>1298.861423975049</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743463</v>
       </c>
       <c r="V34" t="n">
-        <v>955.7413793648352</v>
+        <v>955.7413793648371</v>
       </c>
       <c r="W34" t="n">
-        <v>771.9803829451862</v>
+        <v>771.980382945188</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035139</v>
+        <v>643.1233239035155</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587429</v>
+        <v>523.4835701587443</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C35" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.850896898432</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136385</v>
+        <v>930.7541562136392</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077293</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G35" t="n">
         <v>209.4952946298711</v>
       </c>
       <c r="H35" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="I35" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="J35" t="n">
         <v>172.4893359842934</v>
       </c>
       <c r="K35" t="n">
-        <v>389.9421870860126</v>
+        <v>487.4784364681209</v>
       </c>
       <c r="L35" t="n">
-        <v>830.6840263769044</v>
+        <v>928.2202757590127</v>
       </c>
       <c r="M35" t="n">
-        <v>1327.243902809703</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N35" t="n">
-        <v>1810.567808786315</v>
+        <v>1908.104058168423</v>
       </c>
       <c r="O35" t="n">
-        <v>2214.713878425931</v>
+        <v>2312.250127808039</v>
       </c>
       <c r="P35" t="n">
-        <v>2527.485738752508</v>
+        <v>2369.511171075843</v>
       </c>
       <c r="Q35" t="n">
-        <v>2527.485738752508</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="R35" t="n">
-        <v>2527.485738752508</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755202</v>
       </c>
       <c r="T35" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840341</v>
       </c>
       <c r="U35" t="n">
         <v>2380.551050704864</v>
       </c>
       <c r="V35" t="n">
-        <v>2211.299000688789</v>
+        <v>2211.29900068879</v>
       </c>
       <c r="W35" t="n">
         <v>2016.491294634375</v>
       </c>
       <c r="X35" t="n">
-        <v>1802.188378243852</v>
+        <v>1802.188378243853</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907675</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247222</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D36" t="n">
-        <v>614.8369677149344</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718052</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216796</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197579</v>
+        <v>204.7078824197578</v>
       </c>
       <c r="H36" t="n">
         <v>107.8723597466996</v>
       </c>
       <c r="I36" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="J36" t="n">
         <v>140.5484246008706</v>
@@ -7023,28 +7023,28 @@
         <v>855.0572474067833</v>
       </c>
       <c r="M36" t="n">
-        <v>1105.017162531808</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.164933843857</v>
+        <v>1500.205486869129</v>
       </c>
       <c r="O36" t="n">
-        <v>2165.271032204252</v>
+        <v>1967.311585229524</v>
       </c>
       <c r="P36" t="n">
-        <v>2527.485738752508</v>
+        <v>2329.52629177778</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.485738752508</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="R36" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S36" t="n">
         <v>2340.812536422166</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.422185386991</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U36" t="n">
         <v>1934.948526056011</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.36168246957354</v>
+        <v>53.36168246957351</v>
       </c>
       <c r="C37" t="n">
         <v>51.472937019238</v>
@@ -7084,61 +7084,61 @@
         <v>51.472937019238</v>
       </c>
       <c r="G37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="H37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="I37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="J37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="K37" t="n">
         <v>114.8193015577264</v>
       </c>
       <c r="L37" t="n">
-        <v>254.6675339992995</v>
+        <v>254.6675339992996</v>
       </c>
       <c r="M37" t="n">
         <v>414.0353339933175</v>
       </c>
       <c r="N37" t="n">
-        <v>572.8481813772845</v>
+        <v>572.8481813772846</v>
       </c>
       <c r="O37" t="n">
-        <v>708.618997219088</v>
+        <v>708.6189972190881</v>
       </c>
       <c r="P37" t="n">
-        <v>803.5102093354877</v>
+        <v>803.5102093354878</v>
       </c>
       <c r="Q37" t="n">
-        <v>803.5102093354877</v>
+        <v>791.2262175402384</v>
       </c>
       <c r="R37" t="n">
-        <v>803.5102093354877</v>
+        <v>791.2262175402384</v>
       </c>
       <c r="S37" t="n">
-        <v>762.2208754549575</v>
+        <v>749.9368836597083</v>
       </c>
       <c r="T37" t="n">
-        <v>697.9198016403446</v>
+        <v>517.9085857571113</v>
       </c>
       <c r="U37" t="n">
-        <v>578.4714754337912</v>
+        <v>398.4602595505578</v>
       </c>
       <c r="V37" t="n">
-        <v>485.4633950801979</v>
+        <v>305.4521791969646</v>
       </c>
       <c r="W37" t="n">
-        <v>367.0342176855812</v>
+        <v>187.0230018023479</v>
       </c>
       <c r="X37" t="n">
-        <v>135.781753580957</v>
+        <v>123.4977617857078</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.47381886121823</v>
+        <v>69.18982706596913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C38" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136387</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077293</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G38" t="n">
-        <v>209.4952946298711</v>
+        <v>209.495294629871</v>
       </c>
       <c r="H38" t="n">
         <v>50.54971477505016</v>
@@ -7181,10 +7181,10 @@
         <v>928.2202757590127</v>
       </c>
       <c r="M38" t="n">
-        <v>1424.780152191812</v>
+        <v>1169.269335133037</v>
       </c>
       <c r="N38" t="n">
-        <v>1908.104058168423</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O38" t="n">
         <v>2056.739310749265</v>
@@ -7199,25 +7199,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T38" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U38" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V38" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.373746907673</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C39" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D39" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E39" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F39" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7078824197578</v>
+        <v>204.707882419758</v>
       </c>
       <c r="H39" t="n">
         <v>107.8723597466996</v>
@@ -7254,7 +7254,7 @@
         <v>50.54971477505016</v>
       </c>
       <c r="K39" t="n">
-        <v>330.8784636468242</v>
+        <v>106.0329063691805</v>
       </c>
       <c r="L39" t="n">
         <v>540.2129803033191</v>
@@ -7281,7 +7281,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U39" t="n">
         <v>1934.948526056011</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.37924844695749</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C40" t="n">
-        <v>92.49050299662196</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D40" t="n">
-        <v>92.49050299662196</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E40" t="n">
-        <v>92.49050299662196</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F40" t="n">
-        <v>92.49050299662196</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G40" t="n">
-        <v>91.56728075243412</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H40" t="n">
-        <v>91.56728075243412</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I40" t="n">
-        <v>91.56728075243412</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J40" t="n">
         <v>50.54971477505016</v>
@@ -7354,28 +7354,28 @@
         <v>803.5102093354877</v>
       </c>
       <c r="R40" t="n">
-        <v>666.0972386379668</v>
+        <v>803.5102093354877</v>
       </c>
       <c r="S40" t="n">
-        <v>623.2272255491083</v>
+        <v>762.2208754549576</v>
       </c>
       <c r="T40" t="n">
-        <v>558.9261517344954</v>
+        <v>697.9198016403448</v>
       </c>
       <c r="U40" t="n">
-        <v>439.4778255279419</v>
+        <v>578.4714754337913</v>
       </c>
       <c r="V40" t="n">
-        <v>346.4697451743486</v>
+        <v>485.4633950801981</v>
       </c>
       <c r="W40" t="n">
-        <v>228.0405677797319</v>
+        <v>199.3069935975972</v>
       </c>
       <c r="X40" t="n">
-        <v>164.5153277630919</v>
+        <v>135.7817535809572</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.2073930433531</v>
+        <v>81.47381886121855</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.850896898432</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D41" t="n">
-        <v>930.7541562136392</v>
+        <v>930.7541562136387</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077304</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F41" t="n">
-        <v>457.2716938058851</v>
+        <v>457.2716938058844</v>
       </c>
       <c r="G41" t="n">
         <v>209.495294629871</v>
@@ -7424,7 +7424,7 @@
         <v>1908.104058168423</v>
       </c>
       <c r="O41" t="n">
-        <v>2312.250127808039</v>
+        <v>2214.713878425931</v>
       </c>
       <c r="P41" t="n">
         <v>2527.485738752508</v>
@@ -7436,25 +7436,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U41" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V41" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X41" t="n">
         <v>1802.188378243852</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.373746907675</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.3792774837669</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C42" t="n">
-        <v>753.6756047247218</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D42" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718051</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216794</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G42" t="n">
-        <v>204.707882419758</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H42" t="n">
         <v>107.8723597466996</v>
@@ -7488,13 +7488,13 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5484246008706</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K42" t="n">
-        <v>420.8771734726446</v>
+        <v>330.8784636468242</v>
       </c>
       <c r="L42" t="n">
-        <v>855.0572474067833</v>
+        <v>342.2535333285902</v>
       </c>
       <c r="M42" t="n">
         <v>907.0577155570795</v>
@@ -7518,7 +7518,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U42" t="n">
         <v>1934.948526056011</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.0889065575576</v>
+        <v>53.36168246957336</v>
       </c>
       <c r="C43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="D43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="E43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="F43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="G43" t="n">
         <v>50.54971477505016</v>
@@ -7594,25 +7594,25 @@
         <v>803.5102093354877</v>
       </c>
       <c r="S43" t="n">
-        <v>762.2208754549576</v>
+        <v>594.4936513669734</v>
       </c>
       <c r="T43" t="n">
-        <v>697.9198016403449</v>
+        <v>517.9085857571107</v>
       </c>
       <c r="U43" t="n">
-        <v>578.4714754337915</v>
+        <v>398.4602595505573</v>
       </c>
       <c r="V43" t="n">
-        <v>485.4633950801984</v>
+        <v>305.4521791969642</v>
       </c>
       <c r="W43" t="n">
-        <v>367.0342176855818</v>
+        <v>187.0230018023476</v>
       </c>
       <c r="X43" t="n">
-        <v>303.5089776689418</v>
+        <v>123.4977617857076</v>
       </c>
       <c r="Y43" t="n">
-        <v>236.9170511539531</v>
+        <v>69.18982706596893</v>
       </c>
     </row>
     <row r="44">
@@ -7655,10 +7655,10 @@
         <v>928.2202757590127</v>
       </c>
       <c r="M44" t="n">
-        <v>1424.780152191812</v>
+        <v>1169.269335133037</v>
       </c>
       <c r="N44" t="n">
-        <v>1908.104058168423</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O44" t="n">
         <v>2056.739310749265</v>
@@ -7725,37 +7725,37 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J45" t="n">
-        <v>140.5484246008706</v>
+        <v>106.0329063691805</v>
       </c>
       <c r="K45" t="n">
-        <v>420.8771734726446</v>
+        <v>106.0329063691805</v>
       </c>
       <c r="L45" t="n">
-        <v>855.0572474067833</v>
+        <v>540.2129803033191</v>
       </c>
       <c r="M45" t="n">
-        <v>1419.861429635273</v>
+        <v>1105.017162531808</v>
       </c>
       <c r="N45" t="n">
-        <v>1500.205486869128</v>
+        <v>1698.164933843857</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.311585229523</v>
+        <v>2165.271032204252</v>
       </c>
       <c r="P45" t="n">
-        <v>2329.526291777779</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R45" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S45" t="n">
         <v>2340.812536422166</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.422185386991</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U45" t="n">
         <v>1934.948526056011</v>
@@ -7828,25 +7828,25 @@
         <v>803.5102093354877</v>
       </c>
       <c r="R46" t="n">
-        <v>791.2262175402386</v>
+        <v>666.0972386379668</v>
       </c>
       <c r="S46" t="n">
-        <v>749.9368836597084</v>
+        <v>624.8079047574366</v>
       </c>
       <c r="T46" t="n">
-        <v>685.6358098450955</v>
+        <v>560.5068309428237</v>
       </c>
       <c r="U46" t="n">
-        <v>566.1874836385421</v>
+        <v>441.0585047362702</v>
       </c>
       <c r="V46" t="n">
-        <v>473.1794032849489</v>
+        <v>348.050424382677</v>
       </c>
       <c r="W46" t="n">
-        <v>187.023001802348</v>
+        <v>229.6212469880602</v>
       </c>
       <c r="X46" t="n">
-        <v>123.4977617857079</v>
+        <v>166.0960069714202</v>
       </c>
       <c r="Y46" t="n">
         <v>69.18982706596918</v>
@@ -8690,16 +8690,16 @@
         <v>96.65426516890477</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729915</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>257.9578541477378</v>
       </c>
       <c r="M11" t="n">
-        <v>382.2050580995231</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N11" t="n">
-        <v>80.34503610263867</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.0105582396826</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>43.52671764789223</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>70.26605470698685</v>
+        <v>34.90730789672781</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2987390334636</v>
+        <v>24.00592370515643</v>
       </c>
       <c r="O12" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>230.2785172457169</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890477</v>
       </c>
       <c r="K14" t="n">
-        <v>146.3379837786595</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>534.0847761085865</v>
+        <v>534.0847761085867</v>
       </c>
       <c r="N14" t="n">
-        <v>80.34503610263867</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>207.7988743512464</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758796</v>
       </c>
       <c r="Q14" t="n">
         <v>116.4392174774052</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>73.0105582396826</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>78.88546445815126</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>34.90730789672781</v>
+        <v>192.0443884340524</v>
       </c>
       <c r="N15" t="n">
-        <v>475.2987390334636</v>
+        <v>24.00592370515643</v>
       </c>
       <c r="O15" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839255</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,19 +9164,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>103.2182277729915</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>383.4446023838054</v>
+        <v>97.76580185407867</v>
       </c>
       <c r="M17" t="n">
-        <v>534.0847761085865</v>
+        <v>93.36441489746107</v>
       </c>
       <c r="N17" t="n">
-        <v>531.6378514309458</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O17" t="n">
-        <v>86.81188247023927</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.0105582396826</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>82.99313878868932</v>
+        <v>34.90730789672781</v>
       </c>
       <c r="N18" t="n">
-        <v>475.2987390334636</v>
+        <v>432.4767822225767</v>
       </c>
       <c r="O18" t="n">
         <v>40.19667328157179</v>
@@ -9401,19 +9401,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>103.2182277729915</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>97.76580185407867</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>411.5352234669835</v>
+        <v>507.6918063355912</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309458</v>
+        <v>80.34503610263867</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023927</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9477,25 +9477,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>73.0105582396826</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>306.4712646378411</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>486.200123225035</v>
+        <v>34.90730789672781</v>
       </c>
       <c r="N21" t="n">
-        <v>475.2987390334636</v>
+        <v>432.4767822225767</v>
       </c>
       <c r="O21" t="n">
         <v>40.19667328157179</v>
       </c>
       <c r="P21" t="n">
-        <v>48.12815827408373</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9638,25 +9638,25 @@
         <v>96.65426516890477</v>
       </c>
       <c r="K23" t="n">
-        <v>134.1476750521913</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>534.0847761085865</v>
+        <v>82.79196078027933</v>
       </c>
       <c r="N23" t="n">
-        <v>531.6378514309458</v>
+        <v>220.1878630414121</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4071485758796</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.4392174774052</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9717,19 +9717,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>60.64445572062083</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>43.52671764789223</v>
       </c>
       <c r="M24" t="n">
         <v>34.90730789672781</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3443192900004</v>
+        <v>419.7496981408741</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>370.5933856967986</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>388.3218894684178</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10194,16 +10194,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>435.9332410987404</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>105.1615370726862</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>40.19667328157179</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10425,19 +10425,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>73.0105582396826</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>55.01668702341284</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>105.1615370726867</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10586,7 +10586,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>322.8675723201825</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>160.2465862201264</v>
       </c>
       <c r="Q35" t="n">
-        <v>116.4392174774052</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>287.3920706492785</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726886</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.14143670839255</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10829,13 +10829,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378799</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>236.9485012387665</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10902,10 +10902,10 @@
         <v>73.0105582396826</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>116.6880835934797</v>
       </c>
       <c r="L39" t="n">
-        <v>254.9757243716244</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11072,10 +11072,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415689</v>
+        <v>396.5187716192373</v>
       </c>
       <c r="P41" t="n">
-        <v>319.8168566005958</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>116.4392174774052</v>
@@ -11136,16 +11136,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>73.0105582396826</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>55.01668702341336</v>
       </c>
       <c r="M42" t="n">
-        <v>87.43303330106744</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11303,13 +11303,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378799</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>236.9485012387665</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>129.0541861125415</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062083</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>105.1615370726872</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839255</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288905</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865722</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>183.1999606917213</v>
+        <v>239.8776541311</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010057</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889829</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>39.42401147299658</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>204.3914103690694</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>229.6915098470263</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>260.3883658759717</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>260.8850331288904</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865721</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140066</v>
+        <v>18.95690544140073</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>90.29547644886756</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>12.08775065503864</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690694</v>
+        <v>204.3914103690695</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>229.6915098470264</v>
       </c>
       <c r="X14" t="n">
-        <v>172.586581044188</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759717</v>
+        <v>260.3883658759718</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325497.5683906043</v>
+        <v>325497.5683906045</v>
       </c>
       <c r="C2" t="n">
         <v>325497.5683906044</v>
       </c>
       <c r="D2" t="n">
-        <v>325497.5683906044</v>
+        <v>325497.5683906045</v>
       </c>
       <c r="E2" t="n">
-        <v>284446.8892009016</v>
+        <v>284446.8892009013</v>
       </c>
       <c r="F2" t="n">
-        <v>284446.8892009014</v>
+        <v>284446.8892009012</v>
       </c>
       <c r="G2" t="n">
         <v>326240.2257100273</v>
       </c>
       <c r="H2" t="n">
-        <v>326240.2257100273</v>
+        <v>326240.2257100274</v>
       </c>
       <c r="I2" t="n">
         <v>326240.2257100273</v>
       </c>
       <c r="J2" t="n">
-        <v>326240.2257100261</v>
+        <v>326240.2257100263</v>
       </c>
       <c r="K2" t="n">
-        <v>326240.2257100266</v>
+        <v>326240.2257100267</v>
       </c>
       <c r="L2" t="n">
-        <v>326240.2257100262</v>
+        <v>326240.2257100263</v>
       </c>
       <c r="M2" t="n">
-        <v>326240.2257100276</v>
+        <v>326240.2257100274</v>
       </c>
       <c r="N2" t="n">
-        <v>326240.2257100276</v>
+        <v>326240.2257100273</v>
       </c>
       <c r="O2" t="n">
         <v>326240.2257100273</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746107</v>
+        <v>356901.2563746109</v>
       </c>
       <c r="F3" t="n">
-        <v>1.286285363935998e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909403</v>
+        <v>72236.38115909407</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120312.442846625</v>
+        <v>120312.4428466251</v>
       </c>
       <c r="K3" t="n">
-        <v>8.060721613998923e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909403</v>
+        <v>72236.38115909397</v>
       </c>
       <c r="M3" t="n">
-        <v>103055.0537486387</v>
+        <v>103055.0537486389</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763834</v>
+        <v>8860.779650763778</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>415219.1534460828</v>
       </c>
       <c r="E4" t="n">
-        <v>292825.008417923</v>
+        <v>292825.0084179231</v>
       </c>
       <c r="F4" t="n">
         <v>292825.0084179231</v>
@@ -26439,19 +26439,19 @@
         <v>348860.1176001111</v>
       </c>
       <c r="J4" t="n">
+        <v>338193.2769757742</v>
+      </c>
+      <c r="K4" t="n">
         <v>338193.2769757743</v>
       </c>
-      <c r="K4" t="n">
-        <v>338193.2769757742</v>
-      </c>
       <c r="L4" t="n">
-        <v>338193.2769757743</v>
+        <v>338193.2769757741</v>
       </c>
       <c r="M4" t="n">
-        <v>339446.9901772323</v>
+        <v>339446.9901772324</v>
       </c>
       <c r="N4" t="n">
-        <v>339446.9901772323</v>
+        <v>339446.9901772324</v>
       </c>
       <c r="O4" t="n">
         <v>339446.9901772324</v>
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41524.90096894781</v>
+        <v>41524.90096894783</v>
       </c>
       <c r="F5" t="n">
         <v>41524.90096894783</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852767</v>
+        <v>49115.95137852768</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852767</v>
+        <v>49115.95137852768</v>
       </c>
       <c r="I5" t="n">
-        <v>49115.95137852767</v>
+        <v>49115.95137852768</v>
       </c>
       <c r="J5" t="n">
-        <v>65082.64625607464</v>
+        <v>65082.64625607466</v>
       </c>
       <c r="K5" t="n">
-        <v>65082.64625607465</v>
+        <v>65082.64625607467</v>
       </c>
       <c r="L5" t="n">
         <v>65082.64625607465</v>
       </c>
       <c r="M5" t="n">
-        <v>55600.50041746881</v>
+        <v>55600.50041746884</v>
       </c>
       <c r="N5" t="n">
-        <v>55600.50041746881</v>
+        <v>55600.50041746882</v>
       </c>
       <c r="O5" t="n">
         <v>55600.50041746882</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123349.1850554785</v>
+        <v>-123353.5536279455</v>
       </c>
       <c r="C6" t="n">
-        <v>-123349.1850554784</v>
+        <v>-123353.5536279456</v>
       </c>
       <c r="D6" t="n">
-        <v>-123349.1850554784</v>
+        <v>-123353.5536279455</v>
       </c>
       <c r="E6" t="n">
-        <v>-406804.27656058</v>
+        <v>-407050.1197165166</v>
       </c>
       <c r="F6" t="n">
-        <v>-49903.02018596968</v>
+        <v>-50148.86334190572</v>
       </c>
       <c r="G6" t="n">
         <v>-143972.2244277055</v>
       </c>
       <c r="H6" t="n">
-        <v>-71735.84326861147</v>
+        <v>-71735.84326861135</v>
       </c>
       <c r="I6" t="n">
-        <v>-71735.84326861141</v>
+        <v>-71735.84326861153</v>
       </c>
       <c r="J6" t="n">
-        <v>-197348.1403684478</v>
+        <v>-197348.1403684476</v>
       </c>
       <c r="K6" t="n">
-        <v>-77035.69752182229</v>
+        <v>-77035.69752182224</v>
       </c>
       <c r="L6" t="n">
-        <v>-149272.0786809167</v>
+        <v>-149272.0786809165</v>
       </c>
       <c r="M6" t="n">
-        <v>-171862.3186333122</v>
+        <v>-171862.3186333127</v>
       </c>
       <c r="N6" t="n">
-        <v>-68807.26488467355</v>
+        <v>-68807.26488467386</v>
       </c>
       <c r="O6" t="n">
-        <v>-77668.04453543776</v>
+        <v>-77668.04453543764</v>
       </c>
       <c r="P6" t="n">
-        <v>-68807.26488467355</v>
+        <v>-68807.2648846735</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
         <v>129.2180709939486</v>
@@ -26707,19 +26707,19 @@
         <v>219.5135474428162</v>
       </c>
       <c r="J2" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K2" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="N2" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="O2" t="n">
         <v>166.0499518471044</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="I4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="J4" t="n">
-        <v>877.2596374066321</v>
+        <v>877.2596374066325</v>
       </c>
       <c r="K4" t="n">
-        <v>877.2596374066322</v>
+        <v>877.2596374066325</v>
       </c>
       <c r="L4" t="n">
-        <v>877.2596374066322</v>
+        <v>877.2596374066325</v>
       </c>
       <c r="M4" t="n">
-        <v>631.871434688127</v>
+        <v>631.8714346881274</v>
       </c>
       <c r="N4" t="n">
         <v>631.871434688127</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
-        <v>1.607856704919998e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886753</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345468</v>
+        <v>11.07597456345469</v>
       </c>
       <c r="K2" t="n">
-        <v>1.007590201749865e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886755</v>
+        <v>90.29547644886746</v>
       </c>
       <c r="M2" t="n">
-        <v>64.67850083478197</v>
+        <v>64.67850083478216</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345479</v>
+        <v>11.07597456345472</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9668220783249</v>
+        <v>425.9668220783252</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.904612609802</v>
+        <v>205.9046126098022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K2" t="n">
-        <v>1.607856704919998e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886753</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345468</v>
+        <v>11.07597456345469</v>
       </c>
       <c r="P2" t="n">
-        <v>1.007590201749865e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782052</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>31.30063606753276</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15.25726825801272</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.74941852193291</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.44188278383307</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,37 +28245,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J13" t="n">
-        <v>129.2180709939485</v>
+        <v>82.11608293619818</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="L13" t="n">
-        <v>82.11608293620142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28284,37 +28284,37 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="P13" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>15.82707656697313</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="14">
@@ -28409,16 +28409,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>95.86716744632758</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.44188278383307</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T15" t="n">
-        <v>90.14492105451193</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>129.2180709939486</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
+        <v>48.60817180563271</v>
+      </c>
+      <c r="Y15" t="n">
         <v>129.2180709939486</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,28 +28506,28 @@
         <v>129.2180709939486</v>
       </c>
       <c r="J16" t="n">
-        <v>40.60739031761011</v>
+        <v>97.94315950317259</v>
       </c>
       <c r="K16" t="n">
-        <v>41.50869261858799</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>129.2180709939486</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>129.2180709939486</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>15.82707656697313</v>
       </c>
       <c r="R16" t="n">
         <v>129.2180709939486</v>
@@ -28646,10 +28646,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>127.1232045289026</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
-        <v>56.74941852193291</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.31278939044813</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28703,10 +28703,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>91.26520270845702</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.83692582077475</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28764,22 +28764,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.82707656697313</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>116.0448898870149</v>
       </c>
       <c r="U19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>219.5135474428162</v>
@@ -28880,22 +28880,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>124.5411717476139</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.75528086156874</v>
       </c>
       <c r="S21" t="n">
         <v>145.364587523205</v>
@@ -28934,10 +28934,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>166.9639418688503</v>
       </c>
       <c r="H22" t="n">
-        <v>52.58551598970304</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I22" t="n">
         <v>134.7433458784038</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697313</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
         <v>206.9263923888292</v>
@@ -29025,7 +29025,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.5135474428162</v>
+        <v>178.1985940823701</v>
       </c>
     </row>
     <row r="23">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11.94687340646868</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.44188278383307</v>
       </c>
       <c r="S24" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>127.1468161051815</v>
       </c>
     </row>
     <row r="25">
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.3578943466039</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.9639418688503</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I25" t="n">
         <v>134.7433458784038</v>
@@ -29238,16 +29238,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697313</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5135474428162</v>
+        <v>186.4412100552073</v>
       </c>
       <c r="U25" t="n">
         <v>219.5135474428162</v>
@@ -29262,7 +29262,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M26" t="n">
-        <v>56.34270386546842</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N26" t="n">
-        <v>101.3714510123224</v>
+        <v>56.34270386547041</v>
       </c>
       <c r="O26" t="n">
-        <v>101.3714510123224</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123247</v>
       </c>
       <c r="N28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O28" t="n">
-        <v>101.3714510123205</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L29" t="n">
-        <v>56.34270386546933</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P29" t="n">
-        <v>101.3714510123224</v>
+        <v>56.34270386547001</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="E32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="F32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="G32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="H32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="I32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="K32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="L32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="M32" t="n">
-        <v>56.3427038654691</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="N32" t="n">
-        <v>101.3714510123224</v>
+        <v>56.34270386547041</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3714510123224</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="R32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="S32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="T32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="U32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="V32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="W32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="X32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="C34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="F34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="G34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="H34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="I34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="J34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="L34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="M34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="N34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="O34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123256</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.3714510123212</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="R34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="S34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="T34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="U34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="V34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="W34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123222</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I35" t="n">
         <v>148.1749764353493</v>
@@ -30034,25 +30034,25 @@
         <v>52.39645933782052</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8887999698078</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H37" t="n">
         <v>155.4085199241127</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697313</v>
+        <v>3.665924689676176</v>
       </c>
       <c r="R37" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0499518471043</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I38" t="n">
         <v>148.1749764353493</v>
@@ -30271,25 +30271,25 @@
         <v>52.39645933782052</v>
       </c>
       <c r="S38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.0499518471043</v>
+        <v>153.8887999698073</v>
       </c>
       <c r="C40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H40" t="n">
         <v>155.4085199241127</v>
@@ -30402,7 +30402,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.60739031761011</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>15.82707656697313</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S40" t="n">
-        <v>164.4850794308593</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0499518471043</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="41">
@@ -30618,7 +30618,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30666,10 +30666,10 @@
         <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698071</v>
       </c>
       <c r="U43" t="n">
         <v>166.0499518471044</v>
@@ -30684,7 +30684,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8887999698069</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="44">
@@ -30900,7 +30900,7 @@
         <v>15.82707656697313</v>
       </c>
       <c r="R46" t="n">
-        <v>123.8776891132491</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>166.0499518471043</v>
@@ -30915,13 +30915,13 @@
         <v>166.0499518471043</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X46" t="n">
         <v>166.0499518471043</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0499518471043</v>
+        <v>123.8776891132492</v>
       </c>
     </row>
   </sheetData>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5943596489966312</v>
+        <v>0.5943596489966311</v>
       </c>
       <c r="H29" t="n">
-        <v>6.08698575528675</v>
+        <v>6.086985755286749</v>
       </c>
       <c r="I29" t="n">
         <v>22.91405036794264</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902787</v>
+        <v>50.44553225902786</v>
       </c>
       <c r="K29" t="n">
-        <v>75.60477620105529</v>
+        <v>75.60477620105526</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903595</v>
+        <v>93.79441030903594</v>
       </c>
       <c r="M29" t="n">
         <v>104.3643537168798</v>
@@ -33199,19 +33199,19 @@
         <v>100.1429143098812</v>
       </c>
       <c r="P29" t="n">
-        <v>85.46966047527687</v>
+        <v>85.46966047527685</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.184155545585</v>
+        <v>64.18415554558499</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128467</v>
+        <v>37.33544430128466</v>
       </c>
       <c r="S29" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151074</v>
       </c>
       <c r="T29" t="n">
-        <v>2.601809363482754</v>
+        <v>2.601809363482753</v>
       </c>
       <c r="U29" t="n">
         <v>0.04754877191973048</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456978</v>
+        <v>0.3180104480456977</v>
       </c>
       <c r="H30" t="n">
-        <v>3.071311432441345</v>
+        <v>3.071311432441344</v>
       </c>
       <c r="I30" t="n">
         <v>10.9490439349067</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698411</v>
+        <v>30.0450134269841</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604586</v>
+        <v>51.35171344604584</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325557</v>
+        <v>69.04871592325556</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491209</v>
+        <v>80.57659466491208</v>
       </c>
       <c r="N30" t="n">
-        <v>82.7092173625519</v>
+        <v>82.70921736255188</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953933</v>
+        <v>75.66277532953931</v>
       </c>
       <c r="P30" t="n">
-        <v>60.72604775005961</v>
+        <v>60.72604775005959</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.59375473649995</v>
+        <v>40.59375473649994</v>
       </c>
       <c r="R30" t="n">
         <v>19.74454343217061</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182145</v>
+        <v>5.906904594182144</v>
       </c>
       <c r="T30" t="n">
         <v>1.28180527085086</v>
@@ -33336,37 +33336,37 @@
         <v>2.370398844406199</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944481</v>
+        <v>8.01766807494448</v>
       </c>
       <c r="J31" t="n">
         <v>18.84927588235889</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346748</v>
+        <v>30.97515054346747</v>
       </c>
       <c r="L31" t="n">
-        <v>39.63752832455926</v>
+        <v>39.63752832455925</v>
       </c>
       <c r="M31" t="n">
-        <v>41.79221602668308</v>
+        <v>41.79221602668307</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976436</v>
+        <v>40.79849053976435</v>
       </c>
       <c r="O31" t="n">
         <v>37.68400944051898</v>
       </c>
       <c r="P31" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016363</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.32489136587473</v>
+        <v>22.32489136587472</v>
       </c>
       <c r="R31" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121988</v>
       </c>
       <c r="S31" t="n">
-        <v>4.646272581520121</v>
+        <v>4.64627258152012</v>
       </c>
       <c r="T31" t="n">
         <v>1.139148728906863</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>318.1708085695227</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>445.1937770615069</v>
+        <v>160.1920522936591</v>
       </c>
       <c r="M11" t="n">
-        <v>299.4130973192438</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O11" t="n">
         <v>408.2283531713296</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>90.90778770284889</v>
       </c>
       <c r="K12" t="n">
         <v>283.1603523957314</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M12" t="n">
-        <v>35.35874681025903</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P12" t="n">
         <v>365.8734409578346</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.9590373482113</v>
+        <v>157.1370805373243</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61068067633835</v>
+        <v>41.50869261858806</v>
       </c>
       <c r="K13" t="n">
-        <v>64.91877452795578</v>
+        <v>194.1368455219044</v>
       </c>
       <c r="L13" t="n">
-        <v>223.3769237862753</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M13" t="n">
         <v>160.9775757515333</v>
@@ -35580,10 +35580,10 @@
         <v>160.4170175595627</v>
       </c>
       <c r="O13" t="n">
-        <v>137.1422382240439</v>
+        <v>266.3603092179926</v>
       </c>
       <c r="P13" t="n">
-        <v>225.0677802024331</v>
+        <v>95.84970920848463</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>123.1713345547911</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>43.1197560056681</v>
+        <v>318.1708085695227</v>
       </c>
       <c r="L14" t="n">
         <v>445.1937770615069</v>
       </c>
       <c r="M14" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O14" t="n">
-        <v>408.2283531713296</v>
+        <v>120.9869918810071</v>
       </c>
       <c r="P14" t="n">
-        <v>315.9311720470478</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>90.90778770284889</v>
       </c>
       <c r="K15" t="n">
         <v>283.1603523957314</v>
       </c>
       <c r="L15" t="n">
-        <v>35.35874681025903</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>157.1370805373246</v>
       </c>
       <c r="N15" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P15" t="n">
         <v>365.8734409578346</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.33576918556248</v>
       </c>
       <c r="K16" t="n">
-        <v>106.4274671465438</v>
+        <v>64.91877452795578</v>
       </c>
       <c r="L16" t="n">
-        <v>270.4789118440225</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M16" t="n">
         <v>160.9775757515333</v>
       </c>
       <c r="N16" t="n">
-        <v>160.4170175595627</v>
+        <v>289.6350885535113</v>
       </c>
       <c r="O16" t="n">
-        <v>266.3603092179926</v>
+        <v>137.1422382240439</v>
       </c>
       <c r="P16" t="n">
         <v>95.84970920848463</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>113.3909944269754</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>123.1713345547911</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>318.1708085695227</v>
       </c>
       <c r="L17" t="n">
-        <v>285.6788005297267</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>451.2928153283072</v>
+        <v>10.57245411718174</v>
       </c>
       <c r="N17" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>408.2283531713296</v>
       </c>
       <c r="P17" t="n">
         <v>315.9311720470478</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>90.90778770284889</v>
       </c>
       <c r="K18" t="n">
         <v>283.1603523957314</v>
@@ -35969,10 +35969,10 @@
         <v>438.5657312466047</v>
       </c>
       <c r="M18" t="n">
-        <v>48.08583089196151</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>451.2928153283072</v>
+        <v>408.4708585174203</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>123.1713345547911</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>318.1708085695227</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>445.1937770615069</v>
       </c>
       <c r="M20" t="n">
-        <v>328.7432626867042</v>
+        <v>424.8998455553119</v>
       </c>
       <c r="N20" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>408.2283531713296</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>315.9311720470478</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>90.90778770284889</v>
       </c>
       <c r="K21" t="n">
-        <v>245.8268089172203</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L21" t="n">
         <v>438.5657312466047</v>
       </c>
       <c r="M21" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>451.2928153283072</v>
+        <v>408.4708585174203</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q21" t="n">
         <v>199.9590373482113</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>30.92944727919986</v>
+        <v>318.1708085695227</v>
       </c>
       <c r="L23" t="n">
         <v>445.1937770615069</v>
       </c>
       <c r="M23" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>451.2928153283072</v>
+        <v>139.8428269387734</v>
       </c>
       <c r="O23" t="n">
         <v>408.2283531713296</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>315.9311720470478</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>159.5702703804708</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>90.90778770284889</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L24" t="n">
-        <v>438.5657312466047</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>240.338395584844</v>
+        <v>395.7437744357177</v>
       </c>
       <c r="O24" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P24" t="n">
         <v>365.8734409578346</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>123.1713345547911</v>
+        <v>224.5427855671134</v>
       </c>
       <c r="K26" t="n">
-        <v>419.5422595818451</v>
+        <v>419.5422595818449</v>
       </c>
       <c r="L26" t="n">
-        <v>546.5652280738293</v>
+        <v>546.5652280738292</v>
       </c>
       <c r="M26" t="n">
-        <v>557.9183366258713</v>
+        <v>602.9470837727253</v>
       </c>
       <c r="N26" t="n">
-        <v>589.5774166452632</v>
+        <v>544.5486694984111</v>
       </c>
       <c r="O26" t="n">
-        <v>509.599804183652</v>
+        <v>408.2283531713296</v>
       </c>
       <c r="P26" t="n">
-        <v>417.3026230593702</v>
+        <v>417.30262305937</v>
       </c>
       <c r="Q26" t="n">
-        <v>260.9417213927933</v>
+        <v>260.9417213927931</v>
       </c>
       <c r="R26" t="n">
-        <v>48.97499167450189</v>
+        <v>48.97499167450173</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>438.5657312466047</v>
       </c>
       <c r="M27" t="n">
-        <v>335.6860778000707</v>
+        <v>570.5092749782721</v>
       </c>
       <c r="N27" t="n">
-        <v>599.139162941463</v>
+        <v>364.3159657632614</v>
       </c>
       <c r="O27" t="n">
         <v>471.8243417781766</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.7640606947123</v>
+        <v>60.76406069471214</v>
       </c>
       <c r="K28" t="n">
-        <v>166.2902255402782</v>
+        <v>166.290225540278</v>
       </c>
       <c r="L28" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623961</v>
       </c>
       <c r="M28" t="n">
-        <v>262.3490267638557</v>
+        <v>262.349026763858</v>
       </c>
       <c r="N28" t="n">
-        <v>261.7884685718851</v>
+        <v>261.7884685718849</v>
       </c>
       <c r="O28" t="n">
-        <v>238.5136892363645</v>
+        <v>238.5136892363662</v>
       </c>
       <c r="P28" t="n">
-        <v>197.2211602208071</v>
+        <v>197.2211602208069</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534928</v>
+        <v>85.54437444534912</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>224.5427855671135</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5422595818451</v>
+        <v>419.542259581845</v>
       </c>
       <c r="L29" t="n">
-        <v>501.5364809269763</v>
+        <v>546.5652280738292</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727254</v>
+        <v>602.9470837727253</v>
       </c>
       <c r="N29" t="n">
         <v>589.577416645263</v>
       </c>
       <c r="O29" t="n">
-        <v>509.5998041836521</v>
+        <v>509.5998041836519</v>
       </c>
       <c r="P29" t="n">
-        <v>417.3026230593701</v>
+        <v>372.2738759125178</v>
       </c>
       <c r="Q29" t="n">
         <v>159.5702703804708</v>
       </c>
       <c r="R29" t="n">
-        <v>48.97499167450185</v>
+        <v>48.9749916745018</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>90.90778770284891</v>
+        <v>90.90778770284889</v>
       </c>
       <c r="K30" t="n">
         <v>283.1603523957314</v>
       </c>
       <c r="L30" t="n">
-        <v>438.5657312466047</v>
+        <v>392.4065234508482</v>
       </c>
       <c r="M30" t="n">
-        <v>570.5092749782722</v>
+        <v>570.5092749782721</v>
       </c>
       <c r="N30" t="n">
-        <v>81.15561336752982</v>
+        <v>599.139162941463</v>
       </c>
       <c r="O30" t="n">
-        <v>471.8243417781766</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>365.8734409578346</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76406069471226</v>
+        <v>60.76406069471221</v>
       </c>
       <c r="K31" t="n">
         <v>166.2902255402781</v>
       </c>
       <c r="L31" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M31" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638556</v>
       </c>
       <c r="N31" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O31" t="n">
-        <v>238.5136892363663</v>
+        <v>238.5136892363662</v>
       </c>
       <c r="P31" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.54437444534923</v>
+        <v>85.54437444534919</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>123.1713345547911</v>
+        <v>224.5427855671134</v>
       </c>
       <c r="K32" t="n">
-        <v>419.542259581845</v>
+        <v>419.5422595818449</v>
       </c>
       <c r="L32" t="n">
-        <v>546.5652280738293</v>
+        <v>546.5652280738291</v>
       </c>
       <c r="M32" t="n">
-        <v>557.918336625872</v>
+        <v>602.9470837727251</v>
       </c>
       <c r="N32" t="n">
-        <v>589.577416645263</v>
+        <v>544.5486694984111</v>
       </c>
       <c r="O32" t="n">
-        <v>509.599804183652</v>
+        <v>408.2283531713296</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593701</v>
+        <v>417.30262305937</v>
       </c>
       <c r="Q32" t="n">
-        <v>260.9417213927932</v>
+        <v>260.9417213927931</v>
       </c>
       <c r="R32" t="n">
-        <v>48.97499167450186</v>
+        <v>48.97499167450167</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.90778770284889</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>283.1603523957314</v>
       </c>
       <c r="L33" t="n">
-        <v>438.5657312466047</v>
+        <v>11.48996937552062</v>
       </c>
       <c r="M33" t="n">
         <v>570.5092749782721</v>
       </c>
       <c r="N33" t="n">
-        <v>81.15561336753029</v>
+        <v>599.139162941463</v>
       </c>
       <c r="O33" t="n">
         <v>471.8243417781766</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471227</v>
+        <v>60.76406069471209</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2902255402781</v>
+        <v>166.290225540278</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623961</v>
       </c>
       <c r="M34" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638555</v>
       </c>
       <c r="N34" t="n">
-        <v>261.7884685718851</v>
+        <v>261.7884685718849</v>
       </c>
       <c r="O34" t="n">
-        <v>238.5136892363663</v>
+        <v>238.5136892363695</v>
       </c>
       <c r="P34" t="n">
-        <v>197.221160220807</v>
+        <v>197.2211602208068</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.5443744453481</v>
+        <v>85.54437444534906</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>123.1713345547911</v>
       </c>
       <c r="K35" t="n">
-        <v>219.6493445471911</v>
+        <v>318.1708085695227</v>
       </c>
       <c r="L35" t="n">
         <v>445.1937770615069</v>
@@ -37321,10 +37321,10 @@
         <v>408.2283531713296</v>
       </c>
       <c r="P35" t="n">
-        <v>315.9311720470478</v>
+        <v>57.83943764424679</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>159.5702703804708</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>438.5657312466047</v>
       </c>
       <c r="M36" t="n">
-        <v>252.4847627525507</v>
+        <v>570.5092749782721</v>
       </c>
       <c r="N36" t="n">
-        <v>599.139162941463</v>
+        <v>81.15561336753213</v>
       </c>
       <c r="O36" t="n">
         <v>471.8243417781766</v>
@@ -37403,7 +37403,7 @@
         <v>365.8734409578346</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>445.1937770615069</v>
       </c>
       <c r="M38" t="n">
-        <v>501.5756327604029</v>
+        <v>243.4838983576005</v>
       </c>
       <c r="N38" t="n">
         <v>488.2059656329407</v>
       </c>
       <c r="O38" t="n">
-        <v>150.1366187685273</v>
+        <v>408.2283531713296</v>
       </c>
       <c r="P38" t="n">
         <v>315.9311720470478</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>283.1603523957314</v>
+        <v>56.04362787285889</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4490067237322</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M39" t="n">
         <v>570.5092749782721</v>
@@ -37792,10 +37792,10 @@
         <v>488.2059656329407</v>
       </c>
       <c r="O41" t="n">
-        <v>408.2283531713296</v>
+        <v>309.7068891489981</v>
       </c>
       <c r="P41" t="n">
-        <v>217.4097080247162</v>
+        <v>315.9311720470478</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.90778770284889</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>283.1603523957314</v>
       </c>
       <c r="L42" t="n">
-        <v>438.5657312466047</v>
+        <v>11.48996937552113</v>
       </c>
       <c r="M42" t="n">
-        <v>52.52572540433962</v>
+        <v>570.5092749782721</v>
       </c>
       <c r="N42" t="n">
         <v>599.139162941463</v>
@@ -38023,13 +38023,13 @@
         <v>445.1937770615069</v>
       </c>
       <c r="M44" t="n">
-        <v>501.5756327604029</v>
+        <v>243.4838983576005</v>
       </c>
       <c r="N44" t="n">
         <v>488.2059656329407</v>
       </c>
       <c r="O44" t="n">
-        <v>150.1366187685273</v>
+        <v>408.2283531713296</v>
       </c>
       <c r="P44" t="n">
         <v>315.9311720470478</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>90.90778770284889</v>
+        <v>56.04362787285889</v>
       </c>
       <c r="K45" t="n">
-        <v>283.1603523957314</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>438.5657312466047</v>
@@ -38105,7 +38105,7 @@
         <v>570.5092749782721</v>
       </c>
       <c r="N45" t="n">
-        <v>81.15561336753075</v>
+        <v>599.139162941463</v>
       </c>
       <c r="O45" t="n">
         <v>471.8243417781766</v>
@@ -38114,7 +38114,7 @@
         <v>365.8734409578346</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
